--- a/Reverse_anglesIn_40.xlsx
+++ b/Reverse_anglesIn_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,546 +440,2706 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-499.7119242599692</v>
+        <v>-519.251761712903</v>
       </c>
       <c r="B2" t="n">
-        <v>-51.8513195675093</v>
+        <v>-52.90590578378023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-458.1009101823437</v>
+        <v>-509.2825640767585</v>
       </c>
       <c r="B3" t="n">
-        <v>-49.59304271798461</v>
+        <v>-52.36998742434294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-421.8392927796875</v>
+        <v>-499.7855914047989</v>
       </c>
       <c r="B4" t="n">
-        <v>-47.60822847300296</v>
+        <v>-51.85665864854074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-390.2889522579121</v>
+        <v>-490.7065741590544</v>
       </c>
       <c r="B5" t="n">
-        <v>-45.91917287032232</v>
+        <v>-51.36389830717487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-362.3261116808533</v>
+        <v>-481.9999401030306</v>
       </c>
       <c r="B6" t="n">
-        <v>-44.48433158096623</v>
+        <v>-50.8899650763857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-335.9472047934686</v>
+        <v>-473.6270012674839</v>
       </c>
       <c r="B7" t="n">
-        <v>-43.15367946121702</v>
+        <v>-50.43334154409654</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-310.6771958883161</v>
+        <v>-465.5547864504031</v>
       </c>
       <c r="B8" t="n">
-        <v>-41.89451394257936</v>
+        <v>-49.99270624303595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-285.7740792485704</v>
+        <v>-457.7548974997628</v>
       </c>
       <c r="B9" t="n">
-        <v>-40.63854024879063</v>
+        <v>-49.56689404345595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-265.9512188245525</v>
+        <v>-450.2027239007749</v>
       </c>
       <c r="B10" t="n">
-        <v>-39.87502441856858</v>
+        <v>-49.15487255887243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-244.004491921517</v>
+        <v>-442.8766881725148</v>
       </c>
       <c r="B11" t="n">
-        <v>-38.87914867175141</v>
+        <v>-48.75571279901244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-222.9344242611567</v>
+        <v>-435.7580180928852</v>
       </c>
       <c r="B12" t="n">
-        <v>-37.95666611621025</v>
+        <v>-48.36859437450353</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-202.8819912883241</v>
+        <v>-428.8300908772916</v>
       </c>
       <c r="B13" t="n">
-        <v>-37.12715954991126</v>
+        <v>-47.99277333299549</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-183.632904596432</v>
+        <v>-422.078229568073</v>
       </c>
       <c r="B14" t="n">
-        <v>-36.37306906791252</v>
+        <v>-47.62758108623061</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-165.1489703572489</v>
+        <v>-415.4893394637278</v>
       </c>
       <c r="B15" t="n">
-        <v>-35.69154934451709</v>
+        <v>-47.27240819802016</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-146.7062845801932</v>
+        <v>-409.0517677017088</v>
       </c>
       <c r="B16" t="n">
-        <v>-35.00126069049751</v>
+        <v>-46.92670341826197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-128.8969907279931</v>
+        <v>-402.7550009525161</v>
       </c>
       <c r="B17" t="n">
-        <v>-34.37176351923569</v>
+        <v>-46.58995788789241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-111.5551514641538</v>
+        <v>-396.5896102632382</v>
       </c>
       <c r="B18" t="n">
-        <v>-33.78437204802904</v>
+        <v>-46.26170797137814</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-94.5734546233419</v>
+        <v>-390.547144952848</v>
       </c>
       <c r="B19" t="n">
-        <v>-33.22780468220169</v>
+        <v>-45.94153283194554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-77.82959133229369</v>
+        <v>-384.6198511354832</v>
       </c>
       <c r="B20" t="n">
-        <v>-32.68676781027165</v>
+        <v>-45.62903615184128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-61.47742571210112</v>
+        <v>-378.8007957144011</v>
       </c>
       <c r="B21" t="n">
-        <v>-32.18124020002802</v>
+        <v>-45.32386129167437</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-45.49097793531629</v>
+        <v>-373.0835623254457</v>
       </c>
       <c r="B22" t="n">
-        <v>-31.70940865346046</v>
+        <v>-45.02566913178146</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-29.77620409864016</v>
+        <v>-367.46233099188</v>
       </c>
       <c r="B23" t="n">
-        <v>-31.25886476511072</v>
+        <v>-44.73414825885865</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-14.29627116107998</v>
+        <v>-361.9318221341531</v>
       </c>
       <c r="B24" t="n">
-        <v>-30.82535920976441</v>
+        <v>-44.44901340858861</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0.9007032536027474</v>
+        <v>-356.4871699740459</v>
       </c>
       <c r="B25" t="n">
-        <v>-30.41616434086572</v>
+        <v>-44.16999675875226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>15.8799143666991</v>
+        <v>-351.1238309198123</v>
       </c>
       <c r="B26" t="n">
-        <v>-30.02244812075454</v>
+        <v>-43.89684199695659</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>30.60172928785144</v>
+        <v>-345.8377101602148</v>
       </c>
       <c r="B27" t="n">
-        <v>-29.65054089868446</v>
+        <v>-43.62931767613542</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45.12762666644323</v>
+        <v>-340.6249942973276</v>
       </c>
       <c r="B28" t="n">
-        <v>-29.29228519736835</v>
+        <v>-43.36720398545538</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>59.40852869507432</v>
+        <v>-335.4821383754873</v>
       </c>
       <c r="B29" t="n">
-        <v>-28.95468850976908</v>
+        <v>-43.11029295327616</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>73.50529633454707</v>
+        <v>-330.4058959650407</v>
       </c>
       <c r="B30" t="n">
-        <v>-28.62991197090868</v>
+        <v>-42.85839276604439</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>87.40274326375336</v>
+        <v>-325.393219896816</v>
       </c>
       <c r="B31" t="n">
-        <v>-28.32029891749698</v>
+        <v>-42.61131968457653</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>101.1421840424675</v>
+        <v>-320.4412608283757</v>
       </c>
       <c r="B32" t="n">
-        <v>-28.02008418378369</v>
+        <v>-42.36889890780171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>114.6968830519173</v>
+        <v>-315.5474666276385</v>
       </c>
       <c r="B33" t="n">
-        <v>-27.73416923587637</v>
+        <v>-42.13097520601225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>128.0652977189379</v>
+        <v>-310.7093451097753</v>
       </c>
       <c r="B34" t="n">
-        <v>-27.46288644352446</v>
+        <v>-41.89739112894851</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>141.3053125018249</v>
+        <v>-305.9246014627153</v>
       </c>
       <c r="B35" t="n">
-        <v>-27.19713028473982</v>
+        <v>-41.66800084280796</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>154.3578121570541</v>
+        <v>-301.1911058653915</v>
       </c>
       <c r="B36" t="n">
-        <v>-26.9480229225289</v>
+        <v>-41.4426677907922</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>167.2769509061365</v>
+        <v>-296.5068798628187</v>
       </c>
       <c r="B37" t="n">
-        <v>-26.70625886998851</v>
+        <v>-41.22126403146361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>180.0310425655112</v>
+        <v>-291.8700248762908</v>
       </c>
       <c r="B38" t="n">
-        <v>-26.4776863160006</v>
+        <v>-41.0036640044727</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>192.6601795795672</v>
+        <v>-287.278773004288</v>
       </c>
       <c r="B39" t="n">
-        <v>-26.25581531687408</v>
+        <v>-40.78974959350011</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>205.171764094212</v>
+        <v>-282.7314931076837</v>
       </c>
       <c r="B40" t="n">
-        <v>-26.04098460320017</v>
+        <v>-40.57941167689232</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>217.5516088864716</v>
+        <v>-278.2266073960257</v>
       </c>
       <c r="B41" t="n">
-        <v>-25.83434023333893</v>
+        <v>-40.37254205012338</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>229.8429726747232</v>
+        <v>-273.7626589470818</v>
       </c>
       <c r="B42" t="n">
-        <v>-25.62936392144181</v>
+        <v>-40.16904048594358</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>241.9568457411128</v>
+        <v>-269.3382456972798</v>
       </c>
       <c r="B43" t="n">
-        <v>-25.44289638953243</v>
+        <v>-39.96880866357355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>253.9883649836065</v>
+        <v>-264.9520727024793</v>
       </c>
       <c r="B44" t="n">
-        <v>-25.25779835015464</v>
+        <v>-39.77175557224505</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>265.8957542679138</v>
+        <v>-260.6028888941558</v>
       </c>
       <c r="B45" t="n">
-        <v>-25.08240357578015</v>
+        <v>-39.57779152059764</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>277.7128860878222</v>
+        <v>-256.2895793474776</v>
       </c>
       <c r="B46" t="n">
-        <v>-24.91008506940952</v>
+        <v>-39.38683779091357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>289.4316452739509</v>
+        <v>-252.0109557747073</v>
       </c>
       <c r="B47" t="n">
-        <v>-24.7431927258561</v>
+        <v>-39.19880531956056</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>301.0436059740065</v>
+        <v>-247.7660228093065</v>
       </c>
       <c r="B48" t="n">
-        <v>-24.58351880182336</v>
+        <v>-39.01362249590368</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>312.5534634352319</v>
+        <v>-243.5537863483656</v>
       </c>
       <c r="B49" t="n">
-        <v>-24.43157742610498</v>
+        <v>-38.83121542264261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>323.9823221267088</v>
+        <v>-239.3732755441377</v>
       </c>
       <c r="B50" t="n">
-        <v>-24.28214105590128</v>
+        <v>-38.65151047417351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>335.3191412935187</v>
+        <v>-235.2235953782929</v>
       </c>
       <c r="B51" t="n">
-        <v>-24.13883177294342</v>
+        <v>-38.47443981948035</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>346.5701004018472</v>
+        <v>-231.1039175622692</v>
       </c>
       <c r="B52" t="n">
-        <v>-24.00048815276377</v>
+        <v>-38.2999408962608</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>357.7425435219521</v>
+        <v>-227.0134082126668</v>
       </c>
       <c r="B53" t="n">
-        <v>-23.86536085053145</v>
+        <v>-38.12794858511657</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>368.8250780523266</v>
+        <v>-222.9512932620128</v>
       </c>
       <c r="B54" t="n">
-        <v>-23.73654285725079</v>
+        <v>-37.9584026308167</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>379.838948964936</v>
+        <v>-218.9168280212814</v>
       </c>
       <c r="B55" t="n">
-        <v>-23.61144714872228</v>
+        <v>-37.79124415136197</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>390.7813515496823</v>
+        <v>-214.9093224072752</v>
       </c>
       <c r="B56" t="n">
-        <v>-23.48884403023523</v>
+        <v>-37.62641883597232</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>401.6537058436721</v>
+        <v>-210.9280951974373</v>
       </c>
       <c r="B57" t="n">
-        <v>-23.36861078417964</v>
+        <v>-37.46387190909689</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>412.4536568622314</v>
+        <v>-206.9725090340083</v>
       </c>
       <c r="B58" t="n">
-        <v>-23.25390227423034</v>
+        <v>-37.30355202353026</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>423.1772972883688</v>
+        <v>-203.0419393794957</v>
       </c>
       <c r="B59" t="n">
-        <v>-23.14410528901421</v>
+        <v>-37.14540813140547</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>433.8442731687699</v>
+        <v>-199.1358172893997</v>
       </c>
       <c r="B60" t="n">
-        <v>-23.0363384551702</v>
+        <v>-36.98939399395813</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>444.4357255837898</v>
+        <v>-195.2535369113566</v>
       </c>
       <c r="B61" t="n">
-        <v>-22.93293676786483</v>
+        <v>-36.8354583322289</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>454.9860651829037</v>
+        <v>-191.3945777880431</v>
       </c>
       <c r="B62" t="n">
-        <v>-22.82864034278916</v>
+        <v>-36.68355820850793</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>465.4639787664745</v>
+        <v>-187.5584594649837</v>
       </c>
       <c r="B63" t="n">
-        <v>-22.7308007748465</v>
+        <v>-36.53365436955568</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>475.8798326049938</v>
+        <v>-183.7446263361699</v>
       </c>
       <c r="B64" t="n">
-        <v>-22.63697771726753</v>
+        <v>-36.38569809141354</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>486.2465408132824</v>
+        <v>-179.9526505101277</v>
       </c>
       <c r="B65" t="n">
-        <v>-22.54170463795757</v>
+        <v>-36.23965428576298</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>496.5574700074093</v>
+        <v>-176.1820384194233</v>
       </c>
       <c r="B66" t="n">
-        <v>-22.45034054844573</v>
+        <v>-36.09547954808819</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>506.8126619117808</v>
+        <v>-172.4323440770202</v>
       </c>
       <c r="B67" t="n">
-        <v>-22.3647349280779</v>
+        <v>-35.95313519390982</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>517.0168596518968</v>
+        <v>-168.7031752684244</v>
       </c>
       <c r="B68" t="n">
-        <v>-22.28025954505434</v>
+        <v>-35.81258785973384</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>527.1763951452032</v>
+        <v>-164.9941073458211</v>
       </c>
       <c r="B69" t="n">
-        <v>-22.19447991425151</v>
+        <v>-35.67379995621184</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>-161.3047375998192</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-35.53673559883728</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>-157.6347239142439</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-35.40136548550587</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>-153.9836495534045</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-35.26765094996413</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>-150.3512022502846</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-35.13556499142431</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>-146.7370178842398</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-35.00507412149209</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>-143.1407804013556</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-34.87614986250583</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>-139.5621690126214</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-34.74876287952547</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>-136.0008771322451</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-34.62288499767839</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>-132.4566103138001</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-34.49848903087572</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>-128.9290785037396</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-34.37554806265099</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>-125.418006422527</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-34.25403644038637</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>-121.9231156099917</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-34.13392783818554</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>-118.4441530359635</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-34.01519871715438</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>-114.9808791902318</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-33.89782673588985</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>-111.5330298174594</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-33.78178635063804</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>-108.1003566371361</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-33.66705368328375</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>-104.6826706784511</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-33.55361171250541</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>-101.2797032773329</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-33.44143346233446</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>-97.89125257849723</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-33.33050002009274</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>-94.51710307019654</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-33.22079037200705</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>-91.15705884299217</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-33.1122858274467</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>-87.8109293664577</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-33.00496817090304</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>-84.47848725570466</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-32.8988143128011</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>-81.15957013530978</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-32.79380917107651</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>-77.85398065461597</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-32.68993298797646</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>-74.56153708607732</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-32.58716796339704</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>-71.28208050925906</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-32.48549878193198</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>-68.0154213507049</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-32.38490630917742</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>-64.76138848901579</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-32.28537345221481</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>-61.5198292671662</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-32.18688540492803</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>-58.29059696873214</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-32.08942794257277</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>-55.07351607413662</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-31.99298296597973</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>-51.86844975472065</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-31.89753741924286</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>-48.67522553360521</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-31.80307321506918</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>-45.49373166633129</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-31.70958028029605</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>-42.32380709521293</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-31.61704187164903</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>-39.16530778789841</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-31.52544341681625</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>-36.0181174196087</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-31.4347738740045</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>-32.88208467692249</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-31.34501742622777</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>-29.75709885109432</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-31.25616358809188</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>-26.6430120953419</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-31.16819685662517</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>-23.53971004679301</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-31.08110610976873</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>-20.4470855715328</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-30.99488098495141</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>-17.36499884934931</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-30.90950676491369</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>-14.29332160643476</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-30.82497014582545</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>-11.2319812749792</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-30.74126528964709</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>-8.180827867878859</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-30.65837589895625</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>-5.139780498750533</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-30.57629480244922</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>-2.108696517351144</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-30.49500644070724</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>0.9125153879997457</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-30.41450206545175</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>3.923955110931622</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-30.33477201121524</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>6.925716450877659</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-30.25580704316474</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>9.917924998791431</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-30.17759359111494</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>12.90064745827598</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-30.1001262312278</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>15.87400837448739</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-30.02339148528472</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>18.8380968481184</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-29.94738059810814</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>21.7930003849076</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-29.87208498888174</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>24.73880473031061</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-29.79749649804231</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>27.67561379963225</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-29.72360407068653</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>30.60351582768323</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-29.65039903523894</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>33.5226004511908</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-29.57787233464896</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>36.43293419085444</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-29.50601813527579</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>39.33462293716723</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-29.43482513579939</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>42.22774131439917</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-29.36428614964282</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>45.11237892557497</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-29.29439211023229</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>47.98860783468128</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-29.22513611334269</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>50.85651515450252</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-29.15650936050364</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>53.71616302987272</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-29.08850651683866</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>56.5676591922741</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-29.02111531814264</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>59.411048129678</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-28.95433309342873</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>62.24643270831489</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-28.88814833548949</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>65.07386012320299</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-28.82255761567288</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>67.8934236019588</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-28.7575509580448</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>70.70518125463005</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-28.69312325066031</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>73.50921920031394</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-28.62926553449265</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>76.30558797103451</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-28.56597355130964</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>79.09437454842077</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-28.50323823634885</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>81.87564289491846</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-28.44105334063666</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>84.64944283102378</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-28.37941518231619</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>87.41586882553059</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-28.31831286220924</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>90.17495683094219</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-28.25774475427138</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>92.92680214107919</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-28.19769984437982</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>95.67144110776511</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-28.13817622917916</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>98.40895785756283</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-28.07916463040587</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>101.1393891184697</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-28.0206628719081</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>103.8628231067053</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-27.96266119433171</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>106.5792967383461</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-27.90515715944034</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>109.2888920593529</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-27.84814194007244</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>111.9916549354346</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-27.79161183022592</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>114.6876452773821</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-27.73556102078935</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>117.3769093423247</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-27.67998602424371</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>120.0595186396056</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-27.62487893920335</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>122.7355368351034</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-27.57023350750216</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>125.4049972493351</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-27.5160478550793</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>128.0679717403196</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-27.46231439742128</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>130.7245059722375</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-27.40902920092044</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>133.3746581638967</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-27.35618662410858</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>136.0184717056045</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-27.30378325539484</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>138.6559986544151</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-27.25181429462861</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>141.2873176399989</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-27.20027067290553</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>143.9124501891376</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-27.14915242294651</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>146.5314486773265</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-27.09845456736858</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>149.1443738003261</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-27.04817075419264</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>151.7512707737611</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-26.99829721780525</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>154.3521932568009</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-26.94882880723663</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>156.9471882149962</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-26.89976114697205</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>159.5362925265719</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-26.85109170991423</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>162.1195496321736</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-26.8028169386271</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>164.6970342862554</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-26.75492797171076</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>167.2687701601294</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-26.70742422952306</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>169.8348042158358</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-26.66030159041549</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>172.3951921551935</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-26.61355421376144</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>174.9499633869549</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-26.56718058348638</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>177.499179321921</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-26.52117389307615</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>180.0428667624007</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-26.47553307014028</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>182.5810909639292</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-26.430250689581</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185.1138647088852</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-26.38532789948091</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>187.641245722107</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-26.34075843368716</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>190.1632927906457</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-26.29653573324484</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>192.6800226008839</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-26.25266034790761</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>195.191484835613</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-26.20912721539069</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>197.697723561542</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-26.16593235216379</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>200.1987680049585</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-26.12307397362211</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>202.6946698609785</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-26.08054646175438</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>205.1854589074323</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-26.03834838284937</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>207.6711828365425</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-25.99647457928396</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>210.1518805064794</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-25.95492194282018</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>212.6275810354394</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-25.9136885407365</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>215.0983338864433</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-25.87276925448451</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>217.564157946647</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-25.83216396110459</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>220.0251161859767</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-25.79186515811592</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>222.4812268443102</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-25.75187279176625</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>224.9325300531457</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-25.71218327705457</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>227.3790639598205</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-25.67279311358407</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>229.8208600980541</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-25.63369989339358</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>232.2579652816601</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-25.59489874138269</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>234.6903934916068</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-25.55639042205661</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>237.1182001052315</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-25.51816840065673</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>239.5414153330668</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-25.48023039798022</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>241.9600571665101</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-25.44257653807056</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>244.3741783640036</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-25.40520071297594</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>246.7838036467551</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-25.3681014544224</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>249.1889653242699</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-25.33127620474639</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>251.5897060741655</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-25.29472065764542</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>253.9860377883181</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-25.25843553111255</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>256.3780118061705</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-25.22241512305652</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>258.7656528929257</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-25.18665777830602</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>261.1489919684758</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-25.1511610719679</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>263.5280624028141</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-25.11592195632061</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>265.9028950901512</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-25.08093830177689</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>268.2735137903711</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-25.04620855791545</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>270.6399627572941</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-25.01172766018817</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>273.0022546379957</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-24.977496685369</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>275.3604383127424</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-24.94350933379042</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>277.7145247911581</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-24.90976704256196</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>280.0645514011281</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-24.87626588737931</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>282.4105498784156</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-24.84300246929253</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>284.7525512034301</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-24.80997474178567</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>287.0905721507867</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-24.77718261888637</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>289.4246481233209</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-24.7446220473506</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>291.7548144234514</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-24.71228976623851</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>294.0810795444797</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-24.68018689028949</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>296.4034876393523</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-24.64830820796186</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>298.7220665072102</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-24.61665186986413</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>301.0368265276322</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-24.58521841932423</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>303.3478121472127</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-24.55400239438464</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>305.655041791193</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-24.5230034535643</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>307.9585404835648</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-24.49221991620853</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>310.2583354813619</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-24.46164897859153</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>312.5544577783339</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-24.43128816692151</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>314.8469242006403</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-24.40113699838976</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>317.1357644169303</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-24.37119282431983</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>319.4210035646142</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-24.3414532335679</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>321.7026654007137</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-24.3119166535979</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>323.9807724699985</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-24.28258183344646</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>326.2553599585481</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-24.25344484851174</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>328.5264382490335</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-24.22450635604262</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>330.7940410322378</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-24.19576277251983</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>333.0581794496345</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-24.16721448080222</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>335.3188962244183</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-24.13885616758217</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>337.5762001002515</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-24.11068885809815</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>339.8301154423097</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-24.08271049034654</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>342.0806747885135</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-24.05491756020432</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>344.3278845937755</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-24.02731174033755</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>346.5717889253458</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-23.99988640387843</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>348.8123881941766</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-23.9726450662355</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>351.0497179912356</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-23.94558307000885</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>353.2838000845751</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-23.91869827146272</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>355.5146458700768</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-23.89199185079706</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>357.7422901336407</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-23.86545920094263</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>359.9667468033045</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-23.83910062064021</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>362.1880319483004</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-23.81291505382558</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>364.4061792396927</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-23.78689870556781</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>366.6212132857471</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-23.76104879355299</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>368.8331251989821</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-23.73537066773138</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>371.041968098467</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-23.70985569657032</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>373.2477438574379</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-23.68450614073868</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>375.4504787676269</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-23.65931913425367</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>377.6501875271701</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-23.63429446994132</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>379.8469056676726</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-23.6094272545349</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>382.040634718514</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-23.58472053339732</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>384.2314010650135</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-23.56017045314136</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>386.4192244665331</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-23.53577626872407</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>388.6041229073313</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-23.51153635685359</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>390.7861252290634</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-23.48744720770787</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>392.965232011035</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-23.46351219740397</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>395.1414739367303</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-23.43972622960873</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>397.3148601150503</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-23.4160909404519</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>399.4854170402808</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-23.39260271936845</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>401.6531718559511</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-23.36925840290648</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>403.8181232355242</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-23.34606126265845</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>405.9802970759467</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-23.32300772535581</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>408.1397120428952</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-23.3000971247248</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>410.2963924050523</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-23.27732549010004</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>412.4503429658284</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-23.25469523817646</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>414.6015841670525</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-23.23220485737342</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>416.7501415102981</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-23.20985054472568</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>418.8960210776605</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-23.18763317017143</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>421.03924723442</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-23.16555121737662</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>423.1798329081385</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-23.14360340355657</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>425.3177996239903</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-23.12178740505688</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>427.4531581804237</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-23.1001038010635</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>429.5859316359476</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-23.07854942879179</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>431.7161225781058</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-23.0571266340106</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>433.8437600546851</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-23.03583137332242</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>435.9688616664137</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-23.01466181645122</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>438.0914292978539</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-22.99362061135386</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>440.2114894411822</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-22.97270362587658</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>442.3290539630268</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-22.95191063976645</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>444.4441403824511</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-22.93124081600713</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>446.5567599613329</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-22.91069299044567</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>448.6669341385415</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-22.89026532463314</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>450.774674906692</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-22.86995734522698</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>452.8799962878217</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-22.84976869282087</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>454.9829130629338</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-22.82969722782069</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>457.0834406638531</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-22.80974299035376</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>459.1815926167037</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-22.78990441789062</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>461.2773870233124</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-22.7701798847219</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>463.3708298844325</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-22.75057081159146</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>465.461938332489</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-22.73107464928291</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>467.5507349576617</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-22.71168970965119</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>469.6372303161179</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-22.69241437679491</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>471.7214336024674</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-22.67324936202467</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>473.8033520360213</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-22.65419676019068</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>475.8830176711227</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-22.63524826350923</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>477.9604277231791</v>
+      </c>
+      <c r="B315" t="n">
+        <v>-22.61640938542932</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>480.0356047813542</v>
+      </c>
+      <c r="B316" t="n">
+        <v>-22.59767643733213</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>482.1085589142247</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-22.57904845650317</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>484.1793028264844</v>
+      </c>
+      <c r="B318" t="n">
+        <v>-22.56052604063965</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>486.2478461018933</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-22.54210851338531</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>488.3142124132015</v>
+      </c>
+      <c r="B320" t="n">
+        <v>-22.52379171579694</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>490.3784063101662</v>
+      </c>
+      <c r="B321" t="n">
+        <v>-22.50557768715821</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>492.4404437266592</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-22.48746430202985</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>494.5003329336581</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-22.46945259587086</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>496.5580914715204</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-22.45153995059568</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>498.6137263303827</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-22.43372736909585</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>500.6672577546502</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-22.41601065589958</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>502.7186937044413</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-22.39839086693606</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>504.7680446761051</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-22.38086913393872</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>506.8153226772216</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-22.36344271801573</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>508.8605404004953</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-22.34611171414343</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>510.9037166269148</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-22.32887250745346</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>512.9448561244976</v>
+      </c>
+      <c r="B332" t="n">
+        <v>-22.31172663920308</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>514.9839657986156</v>
+      </c>
+      <c r="B333" t="n">
+        <v>-22.29467626138702</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>517.0210672302898</v>
+      </c>
+      <c r="B334" t="n">
+        <v>-22.27771565687027</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>519.0561706395558</v>
+      </c>
+      <c r="B335" t="n">
+        <v>-22.26084433290525</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>521.0892789517707</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-22.24406599524516</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>523.1204139174296</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-22.2273755243277</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>525.1495797382164</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-22.21077501935564</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>527.1767906280155</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-22.19426192493165</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_40.xlsx
+++ b/Reverse_anglesIn_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,2706 +440,1594 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-519.251761712903</v>
+        <v>-527.3666513385953</v>
       </c>
       <c r="B2" t="n">
-        <v>-52.90590578378023</v>
+        <v>53.34522052667985</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-509.2825640767585</v>
+        <v>-509.9942278109555</v>
       </c>
       <c r="B3" t="n">
-        <v>-52.36998742434294</v>
+        <v>52.4140814327994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-499.7855914047989</v>
+        <v>-494.0108664498225</v>
       </c>
       <c r="B4" t="n">
-        <v>-51.85665864854074</v>
+        <v>51.54916347178839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-490.7065741590544</v>
+        <v>-479.1585686228701</v>
       </c>
       <c r="B5" t="n">
-        <v>-51.36389830717487</v>
+        <v>50.74081137622747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-481.9999401030306</v>
+        <v>-465.244042677803</v>
       </c>
       <c r="B6" t="n">
-        <v>-50.8899650763857</v>
+        <v>49.98147033431614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-473.6270012674839</v>
+        <v>-452.1190510043985</v>
       </c>
       <c r="B7" t="n">
-        <v>-50.43334154409654</v>
+        <v>49.26510987615542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-465.5547864504031</v>
+        <v>-439.6673456340229</v>
       </c>
       <c r="B8" t="n">
-        <v>-49.99270624303595</v>
+        <v>48.58681134306656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-457.7548974997628</v>
+        <v>-427.796422700384</v>
       </c>
       <c r="B9" t="n">
-        <v>-49.56689404345595</v>
+        <v>47.94252059207697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-450.2027239007749</v>
+        <v>-416.4314621762791</v>
       </c>
       <c r="B10" t="n">
-        <v>-49.15487255887243</v>
+        <v>47.32884376076498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-442.8766881725148</v>
+        <v>-405.5110457622173</v>
       </c>
       <c r="B11" t="n">
-        <v>-48.75571279901244</v>
+        <v>46.74289808096629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-435.7580180928852</v>
+        <v>-394.9844090202708</v>
       </c>
       <c r="B12" t="n">
-        <v>-48.36859437450353</v>
+        <v>46.18222973420714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-428.8300908772916</v>
+        <v>-384.8088534151183</v>
       </c>
       <c r="B13" t="n">
-        <v>-47.99277333299549</v>
+        <v>45.64470490806607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-422.078229568073</v>
+        <v>-374.9484695966865</v>
       </c>
       <c r="B14" t="n">
-        <v>-47.62758108623061</v>
+        <v>45.1284820820407</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-415.4893394637278</v>
+        <v>-365.3725132855076</v>
       </c>
       <c r="B15" t="n">
-        <v>-47.27240819802016</v>
+        <v>44.63193468753827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-409.0517677017088</v>
+        <v>-356.0546982485595</v>
       </c>
       <c r="B16" t="n">
-        <v>-46.92670341826197</v>
+        <v>44.15363739705821</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-402.7550009525161</v>
+        <v>-346.9722573744222</v>
       </c>
       <c r="B17" t="n">
-        <v>-46.58995788789241</v>
+        <v>43.69232118458156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-396.5896102632382</v>
+        <v>-338.1054056205831</v>
       </c>
       <c r="B18" t="n">
-        <v>-46.26170797137814</v>
+        <v>43.24685541132699</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-390.547144952848</v>
+        <v>-329.436848699732</v>
       </c>
       <c r="B19" t="n">
-        <v>-45.94153283194554</v>
+        <v>42.81622750267693</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-384.6198511354832</v>
+        <v>-320.95137289103</v>
       </c>
       <c r="B20" t="n">
-        <v>-45.62903615184128</v>
+        <v>42.39952485721386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-378.8007957144011</v>
+        <v>-312.6355143348552</v>
       </c>
       <c r="B21" t="n">
-        <v>-45.32386129167437</v>
+        <v>41.9959201051746</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-373.0835623254457</v>
+        <v>-304.4773645666846</v>
       </c>
       <c r="B22" t="n">
-        <v>-45.02566913178146</v>
+        <v>41.60466615815344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-367.46233099188</v>
+        <v>-296.46631866734</v>
       </c>
       <c r="B23" t="n">
-        <v>-44.73414825885865</v>
+        <v>41.22508333199269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-361.9318221341531</v>
+        <v>-288.5928509185436</v>
       </c>
       <c r="B24" t="n">
-        <v>-44.44901340858861</v>
+        <v>40.85654674509939</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-356.4871699740459</v>
+        <v>-280.8484144901499</v>
       </c>
       <c r="B25" t="n">
-        <v>-44.16999675875226</v>
+        <v>40.49848430747446</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-351.1238309198123</v>
+        <v>-273.2253561780332</v>
       </c>
       <c r="B26" t="n">
-        <v>-43.89684199695659</v>
+        <v>40.15037502575823</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-345.8377101602148</v>
+        <v>-265.7166806058992</v>
       </c>
       <c r="B27" t="n">
-        <v>-43.62931767613542</v>
+        <v>39.81173078993532</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-340.6249942973276</v>
+        <v>-258.3161164140629</v>
       </c>
       <c r="B28" t="n">
-        <v>-43.36720398545538</v>
+        <v>39.48210805625518</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-335.4821383754873</v>
+        <v>-251.0179255310152</v>
       </c>
       <c r="B29" t="n">
-        <v>-43.11029295327616</v>
+        <v>39.16109241935794</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-330.4058959650407</v>
+        <v>-243.8168660133905</v>
       </c>
       <c r="B30" t="n">
-        <v>-42.85839276604439</v>
+        <v>38.84829827705087</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-325.393219896816</v>
+        <v>-236.7081621182838</v>
       </c>
       <c r="B31" t="n">
-        <v>-42.61131968457653</v>
+        <v>38.54336873672298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-320.4412608283757</v>
+        <v>-229.6874013301913</v>
       </c>
       <c r="B32" t="n">
-        <v>-42.36889890780171</v>
+        <v>38.24596750792806</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-315.5474666276385</v>
+        <v>-222.7506064410126</v>
       </c>
       <c r="B33" t="n">
-        <v>-42.13097520601225</v>
+        <v>37.95578885536624</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-310.7093451097753</v>
+        <v>-215.8940090376885</v>
       </c>
       <c r="B34" t="n">
-        <v>-41.89739112894851</v>
+        <v>37.67253542723353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-305.9246014627153</v>
+        <v>-209.1142507143248</v>
       </c>
       <c r="B35" t="n">
-        <v>-41.66800084280796</v>
+        <v>37.39594170010776</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-301.1911058653915</v>
+        <v>-202.4081019203196</v>
       </c>
       <c r="B36" t="n">
-        <v>-41.4426677907922</v>
+        <v>37.12574494417843</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-296.5068798628187</v>
+        <v>-195.7726269710354</v>
       </c>
       <c r="B37" t="n">
-        <v>-41.22126403146361</v>
+        <v>36.86170459821224</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-291.8700248762908</v>
+        <v>-189.2051467603617</v>
       </c>
       <c r="B38" t="n">
-        <v>-41.0036640044727</v>
+        <v>36.60359954072486</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-287.278773004288</v>
+        <v>-182.7030385192697</v>
       </c>
       <c r="B39" t="n">
-        <v>-40.78974959350011</v>
+        <v>36.35120674221697</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-282.7314931076837</v>
+        <v>-176.2639982290257</v>
       </c>
       <c r="B40" t="n">
-        <v>-40.57941167689232</v>
+        <v>36.1043316598007</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-278.2266073960257</v>
+        <v>-169.8857734718117</v>
       </c>
       <c r="B41" t="n">
-        <v>-40.37254205012338</v>
+        <v>35.86277889155583</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-273.7626589470818</v>
+        <v>-163.566295588466</v>
       </c>
       <c r="B42" t="n">
-        <v>-40.16904048594358</v>
+        <v>35.62636806142479</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-269.3382456972798</v>
+        <v>-157.3036410617164</v>
       </c>
       <c r="B43" t="n">
-        <v>-39.96880866357355</v>
+        <v>35.39492996079856</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-264.9520727024793</v>
+        <v>-151.0959640125903</v>
       </c>
       <c r="B44" t="n">
-        <v>-39.77175557224505</v>
+        <v>35.16829943961899</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-260.6028888941558</v>
+        <v>-144.9415515651355</v>
       </c>
       <c r="B45" t="n">
-        <v>-39.57779152059764</v>
+        <v>34.94632227667574</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-256.2895793474776</v>
+        <v>-138.83879030175</v>
       </c>
       <c r="B46" t="n">
-        <v>-39.38683779091357</v>
+        <v>34.72885186991046</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-252.0109557747073</v>
+        <v>-132.7861439710826</v>
       </c>
       <c r="B47" t="n">
-        <v>-39.19880531956056</v>
+        <v>34.51574688406224</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-247.7660228093065</v>
+        <v>-126.7821971849268</v>
       </c>
       <c r="B48" t="n">
-        <v>-39.01362249590368</v>
+        <v>34.30687705726358</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-243.5537863483656</v>
+        <v>-120.8255494131272</v>
       </c>
       <c r="B49" t="n">
-        <v>-38.83121542264261</v>
+        <v>34.1021106768394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-239.3732755441377</v>
+        <v>-114.9149368719397</v>
       </c>
       <c r="B50" t="n">
-        <v>-38.65151047417351</v>
+        <v>33.90132971317745</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-235.2235953782929</v>
+        <v>-109.0491128895598</v>
       </c>
       <c r="B51" t="n">
-        <v>-38.47443981948035</v>
+        <v>33.70441543745437</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-231.1039175622692</v>
+        <v>-103.2269167423613</v>
       </c>
       <c r="B52" t="n">
-        <v>-38.2999408962608</v>
+        <v>33.51125729484263</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-227.0134082126668</v>
+        <v>-97.44723950861209</v>
       </c>
       <c r="B53" t="n">
-        <v>-38.12794858511657</v>
+        <v>33.32174879955261</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-222.9512932620128</v>
+        <v>-91.70904170945651</v>
       </c>
       <c r="B54" t="n">
-        <v>-37.9584026308167</v>
+        <v>33.13579007885546</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-218.9168280212814</v>
+        <v>-86.01130057196066</v>
       </c>
       <c r="B55" t="n">
-        <v>-37.79124415136197</v>
+        <v>32.95328139001759</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-214.9093224072752</v>
+        <v>-80.35306751984844</v>
       </c>
       <c r="B56" t="n">
-        <v>-37.62641883597232</v>
+        <v>32.77413049983634</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-210.9280951974373</v>
+        <v>-74.73340619992439</v>
       </c>
       <c r="B57" t="n">
-        <v>-37.46387190909689</v>
+        <v>32.59824522697529</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-206.9725090340083</v>
+        <v>-69.15145404364844</v>
       </c>
       <c r="B58" t="n">
-        <v>-37.30355202353026</v>
+        <v>32.42554104834734</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-203.0419393794957</v>
+        <v>-63.60637432547384</v>
       </c>
       <c r="B59" t="n">
-        <v>-37.14540813140547</v>
+        <v>32.25593546065841</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-199.1358172893997</v>
+        <v>-58.09733292239832</v>
       </c>
       <c r="B60" t="n">
-        <v>-36.98939399395813</v>
+        <v>32.08934496862436</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-195.2535369113566</v>
+        <v>-52.62359451021487</v>
       </c>
       <c r="B61" t="n">
-        <v>-36.8354583322289</v>
+        <v>31.92569765008554</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-191.3945777880431</v>
+        <v>-47.18438254801946</v>
       </c>
       <c r="B62" t="n">
-        <v>-36.68355820850793</v>
+        <v>31.76491508959757</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-187.5584594649837</v>
+        <v>-41.77899839835215</v>
       </c>
       <c r="B63" t="n">
-        <v>-36.53365436955568</v>
+        <v>31.60692797906247</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-183.7446263361699</v>
+        <v>-36.40676111660774</v>
       </c>
       <c r="B64" t="n">
-        <v>-36.38569809141354</v>
+        <v>31.45166843007456</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-179.9526505101277</v>
+        <v>-31.06698669470967</v>
       </c>
       <c r="B65" t="n">
-        <v>-36.23965428576298</v>
+        <v>31.29906715051368</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-176.1820384194233</v>
+        <v>-25.7590532393993</v>
       </c>
       <c r="B66" t="n">
-        <v>-36.09547954808819</v>
+        <v>31.14906227666689</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-172.4323440770202</v>
+        <v>-20.48232444904593</v>
       </c>
       <c r="B67" t="n">
-        <v>-35.95313519390982</v>
+        <v>31.00158917819022</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-168.7031752684244</v>
+        <v>-15.23623492836749</v>
       </c>
       <c r="B68" t="n">
-        <v>-35.81258785973384</v>
+        <v>30.85659212912385</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-164.9941073458211</v>
+        <v>-10.02018658381651</v>
       </c>
       <c r="B69" t="n">
-        <v>-35.67379995621184</v>
+        <v>30.71401006497578</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-161.3047375998192</v>
+        <v>-4.833629399481316</v>
       </c>
       <c r="B70" t="n">
-        <v>-35.53673559883728</v>
+        <v>30.57378802550336</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>-157.6347239142439</v>
+        <v>0.3239673422480734</v>
       </c>
       <c r="B71" t="n">
-        <v>-35.40136548550587</v>
+        <v>30.43587281371589</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>-153.9836495534045</v>
+        <v>5.453124991940237</v>
       </c>
       <c r="B72" t="n">
-        <v>-35.26765094996413</v>
+        <v>30.30021216840507</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>-150.3512022502846</v>
+        <v>10.55436945092332</v>
       </c>
       <c r="B73" t="n">
-        <v>-35.13556499142431</v>
+        <v>30.16675236158841</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>-146.7370178842398</v>
+        <v>15.62816752593621</v>
       </c>
       <c r="B74" t="n">
-        <v>-35.00507412149209</v>
+        <v>30.0354475511017</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>-143.1407804013556</v>
+        <v>20.67501158793305</v>
       </c>
       <c r="B75" t="n">
-        <v>-34.87614986250583</v>
+        <v>29.90624773857557</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>-139.5621690126214</v>
+        <v>25.69536014494162</v>
       </c>
       <c r="B76" t="n">
-        <v>-34.74876287952547</v>
+        <v>29.7791072234085</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>-136.0008771322451</v>
+        <v>30.68965881062787</v>
       </c>
       <c r="B77" t="n">
-        <v>-34.62288499767839</v>
+        <v>29.65398145012811</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>-132.4566103138001</v>
+        <v>35.65832693111585</v>
       </c>
       <c r="B78" t="n">
-        <v>-34.49848903087572</v>
+        <v>29.53082940182766</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>-128.9290785037396</v>
+        <v>40.60182622426154</v>
       </c>
       <c r="B79" t="n">
-        <v>-34.37554806265099</v>
+        <v>29.40960354617328</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>-125.418006422527</v>
+        <v>45.52053662298073</v>
       </c>
       <c r="B80" t="n">
-        <v>-34.25403644038637</v>
+        <v>29.29026760347752</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>-121.9231156099917</v>
+        <v>50.41487576148518</v>
       </c>
       <c r="B81" t="n">
-        <v>-34.13392783818554</v>
+        <v>29.17277952123228</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>-118.4441530359635</v>
+        <v>55.28522664043558</v>
       </c>
       <c r="B82" t="n">
-        <v>-34.01519871715438</v>
+        <v>29.05710174226889</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>-114.9808791902318</v>
+        <v>60.13198097199756</v>
       </c>
       <c r="B83" t="n">
-        <v>-33.89782673588985</v>
+        <v>28.94319526015408</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>-111.5330298174594</v>
+        <v>64.955500164496</v>
       </c>
       <c r="B84" t="n">
-        <v>-33.78178635063804</v>
+        <v>28.83102512440108</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>-108.1003566371361</v>
+        <v>69.75615950434731</v>
       </c>
       <c r="B85" t="n">
-        <v>-33.66705368328375</v>
+        <v>28.72055387950209</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>-104.6826706784511</v>
+        <v>74.53430278233131</v>
       </c>
       <c r="B86" t="n">
-        <v>-33.55361171250541</v>
+        <v>28.61174851974162</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>-101.2797032773329</v>
+        <v>79.29027834536969</v>
       </c>
       <c r="B87" t="n">
-        <v>-33.44143346233446</v>
+        <v>28.50457504816639</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>-97.89125257849723</v>
+        <v>84.02442076726636</v>
       </c>
       <c r="B88" t="n">
-        <v>-33.33050002009274</v>
+        <v>28.39900099930976</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>-94.51710307019654</v>
+        <v>88.73707307253477</v>
       </c>
       <c r="B89" t="n">
-        <v>-33.22079037200705</v>
+        <v>28.29499269335637</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>-91.15705884299217</v>
+        <v>93.42853489999726</v>
       </c>
       <c r="B90" t="n">
-        <v>-33.1122858274467</v>
+        <v>28.19252231013683</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>-87.8109293664577</v>
+        <v>98.0991515634325</v>
       </c>
       <c r="B91" t="n">
-        <v>-33.00496817090304</v>
+        <v>28.09155513404954</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>-84.47848725570466</v>
+        <v>102.7492027858676</v>
       </c>
       <c r="B92" t="n">
-        <v>-32.8988143128011</v>
+        <v>27.99206607918012</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>-81.15957013530978</v>
+        <v>107.3790143567604</v>
       </c>
       <c r="B93" t="n">
-        <v>-32.79380917107651</v>
+        <v>27.8940225895921</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>-77.85398065461597</v>
+        <v>111.9888537011079</v>
       </c>
       <c r="B94" t="n">
-        <v>-32.68993298797646</v>
+        <v>27.79740097954061</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>-74.56153708607732</v>
+        <v>116.5790454070252</v>
       </c>
       <c r="B95" t="n">
-        <v>-32.58716796339704</v>
+        <v>27.7021682586178</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>-71.28208050925906</v>
+        <v>121.1498294427346</v>
       </c>
       <c r="B96" t="n">
-        <v>-32.48549878193198</v>
+        <v>27.6083046304228</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>-68.0154213507049</v>
+        <v>125.7015286259417</v>
       </c>
       <c r="B97" t="n">
-        <v>-32.38490630917742</v>
+        <v>27.51577697578184</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>-64.76138848901579</v>
+        <v>130.2343728867707</v>
       </c>
       <c r="B98" t="n">
-        <v>-32.28537345221481</v>
+        <v>27.42456626518585</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>-61.5198292671662</v>
+        <v>134.7486560430086</v>
       </c>
       <c r="B99" t="n">
-        <v>-32.18688540492803</v>
+        <v>27.33464353276968</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>-58.29059696873214</v>
+        <v>139.2446308021117</v>
       </c>
       <c r="B100" t="n">
-        <v>-32.08942794257277</v>
+        <v>27.24598580525987</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>-55.07351607413662</v>
+        <v>143.7225411315425</v>
       </c>
       <c r="B101" t="n">
-        <v>-31.99298296597973</v>
+        <v>27.15857137334288</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>-51.86844975472065</v>
+        <v>148.1826573617968</v>
       </c>
       <c r="B102" t="n">
-        <v>-31.89753741924286</v>
+        <v>27.07237399363609</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>-48.67522553360521</v>
+        <v>152.625222907533</v>
       </c>
       <c r="B103" t="n">
-        <v>-31.80307321506918</v>
+        <v>26.98737155388963</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>-45.49373166633129</v>
+        <v>157.0504641574789</v>
       </c>
       <c r="B104" t="n">
-        <v>-31.70958028029605</v>
+        <v>26.90354457492129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>-42.32380709521293</v>
+        <v>161.4586268570087</v>
       </c>
       <c r="B105" t="n">
-        <v>-31.61704187164903</v>
+        <v>26.82087009146326</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>-39.16530778789841</v>
+        <v>165.8499386144054</v>
       </c>
       <c r="B106" t="n">
-        <v>-31.52544341681625</v>
+        <v>26.73932775540198</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>-36.0181174196087</v>
+        <v>170.2246328442211</v>
       </c>
       <c r="B107" t="n">
-        <v>-31.4347738740045</v>
+        <v>26.65889622727696</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>-32.88208467692249</v>
+        <v>174.5829321522633</v>
       </c>
       <c r="B108" t="n">
-        <v>-31.34501742622777</v>
+        <v>26.57955566709673</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>-29.75709885109432</v>
+        <v>178.9250553357412</v>
       </c>
       <c r="B109" t="n">
-        <v>-31.25616358809188</v>
+        <v>26.50128664536734</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>-26.6430120953419</v>
+        <v>183.2512157165432</v>
       </c>
       <c r="B110" t="n">
-        <v>-31.16819685662517</v>
+        <v>26.42407047864653</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>-23.53971004679301</v>
+        <v>187.5616269436209</v>
       </c>
       <c r="B111" t="n">
-        <v>-31.08110610976873</v>
+        <v>26.34788784750599</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>-20.4470855715328</v>
+        <v>191.8565013500114</v>
       </c>
       <c r="B112" t="n">
-        <v>-30.99488098495141</v>
+        <v>26.27272008908676</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>-17.36499884934931</v>
+        <v>196.1360402639012</v>
       </c>
       <c r="B113" t="n">
-        <v>-30.90950676491369</v>
+        <v>26.19854966695273</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>-14.29332160643476</v>
+        <v>200.4004529426303</v>
       </c>
       <c r="B114" t="n">
-        <v>-30.82497014582545</v>
+        <v>26.12535761843665</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>-11.2319812749792</v>
+        <v>204.6499143623267</v>
       </c>
       <c r="B115" t="n">
-        <v>-30.74126528964709</v>
+        <v>26.05313060364635</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>-8.180827867878859</v>
+        <v>208.8846419414144</v>
       </c>
       <c r="B116" t="n">
-        <v>-30.65837589895625</v>
+        <v>25.98184786216422</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>-5.139780498750533</v>
+        <v>213.1048078684424</v>
       </c>
       <c r="B117" t="n">
-        <v>-30.57629480244922</v>
+        <v>25.91149601508388</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>-2.108696517351144</v>
+        <v>217.3106150015495</v>
       </c>
       <c r="B118" t="n">
-        <v>-30.49500644070724</v>
+        <v>25.84205663941117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>0.9125153879997457</v>
+        <v>221.5022377713888</v>
       </c>
       <c r="B119" t="n">
-        <v>-30.41450206545175</v>
+        <v>25.77351555664203</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>3.923955110931622</v>
+        <v>225.679852618443</v>
       </c>
       <c r="B120" t="n">
-        <v>-30.33477201121524</v>
+        <v>25.70585815622891</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>6.925716450877659</v>
+        <v>229.8436611834628</v>
       </c>
       <c r="B121" t="n">
-        <v>-30.25580704316474</v>
+        <v>25.63906521827714</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>9.917924998791431</v>
+        <v>233.9938232731534</v>
       </c>
       <c r="B122" t="n">
-        <v>-30.17759359111494</v>
+        <v>25.57312475670203</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>12.90064745827598</v>
+        <v>238.1305070738432</v>
       </c>
       <c r="B123" t="n">
-        <v>-30.1001262312278</v>
+        <v>25.50802298490308</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>15.87400837448739</v>
+        <v>242.2538860666052</v>
       </c>
       <c r="B124" t="n">
-        <v>-30.02339148528472</v>
+        <v>25.44374525697041</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>18.8380968481184</v>
+        <v>246.3641276523549</v>
       </c>
       <c r="B125" t="n">
-        <v>-29.94738059810814</v>
+        <v>25.38027730440497</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>21.7930003849076</v>
+        <v>250.4613926644174</v>
       </c>
       <c r="B126" t="n">
-        <v>-29.87208498888174</v>
+        <v>25.3176063563223</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>24.73880473031061</v>
+        <v>254.5458508587721</v>
       </c>
       <c r="B127" t="n">
-        <v>-29.79749649804231</v>
+        <v>25.25571725559903</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>27.67561379963225</v>
+        <v>258.6176600046113</v>
       </c>
       <c r="B128" t="n">
-        <v>-29.72360407068653</v>
+        <v>25.19459762245575</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>30.60351582768323</v>
+        <v>262.6769743095559</v>
       </c>
       <c r="B129" t="n">
-        <v>-29.65039903523894</v>
+        <v>25.13423453716386</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>33.5226004511908</v>
+        <v>266.7239353361954</v>
       </c>
       <c r="B130" t="n">
-        <v>-29.57787233464896</v>
+        <v>25.07461814137346</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>36.43293419085444</v>
+        <v>270.7587149455091</v>
       </c>
       <c r="B131" t="n">
-        <v>-29.50601813527579</v>
+        <v>25.01573208249168</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>39.33462293716723</v>
+        <v>274.7814542730651</v>
       </c>
       <c r="B132" t="n">
-        <v>-29.43482513579939</v>
+        <v>24.95756594371831</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>42.22774131439917</v>
+        <v>278.7922893914447</v>
       </c>
       <c r="B133" t="n">
-        <v>-29.36428614964282</v>
+        <v>24.90010989914578</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45.11237892557497</v>
+        <v>282.7913799877319</v>
       </c>
       <c r="B134" t="n">
-        <v>-29.29439211023229</v>
+        <v>24.84334949537246</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>47.98860783468128</v>
+        <v>286.7788673697694</v>
       </c>
       <c r="B135" t="n">
-        <v>-29.22513611334269</v>
+        <v>24.78727329384485</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>50.85651515450252</v>
+        <v>290.7548753246294</v>
       </c>
       <c r="B136" t="n">
-        <v>-29.15650936050364</v>
+        <v>24.73187361822296</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>53.71616302987272</v>
+        <v>294.7195687719632</v>
       </c>
       <c r="B137" t="n">
-        <v>-29.08850651683866</v>
+        <v>24.67713395411884</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>56.5676591922741</v>
+        <v>298.6730587992673</v>
       </c>
       <c r="B138" t="n">
-        <v>-29.02111531814264</v>
+        <v>24.62304842453295</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>59.411048129678</v>
+        <v>302.6154863111994</v>
       </c>
       <c r="B139" t="n">
-        <v>-28.95433309342873</v>
+        <v>24.56960568175119</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>62.24643270831489</v>
+        <v>306.5469898144007</v>
       </c>
       <c r="B140" t="n">
-        <v>-28.88814833548949</v>
+        <v>24.51679327959192</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>65.07386012320299</v>
+        <v>310.4676896667607</v>
       </c>
       <c r="B141" t="n">
-        <v>-28.82255761567288</v>
+        <v>24.4646033190104</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>67.8934236019588</v>
+        <v>314.3777201596346</v>
       </c>
       <c r="B142" t="n">
-        <v>-28.7575509580448</v>
+        <v>24.41302471947924</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>70.70518125463005</v>
+        <v>318.2772028937355</v>
       </c>
       <c r="B143" t="n">
-        <v>-28.69312325066031</v>
+        <v>24.36204811894392</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>73.50921920031394</v>
+        <v>322.1662608928137</v>
       </c>
       <c r="B144" t="n">
-        <v>-28.62926553449265</v>
+        <v>24.31166439817303</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>76.30558797103451</v>
+        <v>326.0450240762627</v>
       </c>
       <c r="B145" t="n">
-        <v>-28.56597355130964</v>
+        <v>24.2618626156342</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>79.09437454842077</v>
+        <v>329.9136034088064</v>
       </c>
       <c r="B146" t="n">
-        <v>-28.50323823634885</v>
+        <v>24.21263489023589</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>81.87564289491846</v>
+        <v>333.7721265818602</v>
       </c>
       <c r="B147" t="n">
-        <v>-28.44105334063666</v>
+        <v>24.16397124969116</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>84.64944283102378</v>
+        <v>337.6206981931005</v>
       </c>
       <c r="B148" t="n">
-        <v>-28.37941518231619</v>
+        <v>24.11586450261898</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>87.41586882553059</v>
+        <v>341.4594403352029</v>
       </c>
       <c r="B149" t="n">
-        <v>-28.31831286220924</v>
+        <v>24.06830456168824</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>90.17495683094219</v>
+        <v>345.2884704479746</v>
       </c>
       <c r="B150" t="n">
-        <v>-28.25774475427138</v>
+        <v>24.02128237642353</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>92.92680214107919</v>
+        <v>349.1078896705382</v>
       </c>
       <c r="B151" t="n">
-        <v>-28.19769984437982</v>
+        <v>23.97479132793753</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>95.67144110776511</v>
+        <v>352.9178092940315</v>
       </c>
       <c r="B152" t="n">
-        <v>-28.13817622917916</v>
+        <v>23.92882303165834</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>98.40895785756283</v>
+        <v>356.7183432412424</v>
       </c>
       <c r="B153" t="n">
-        <v>-28.07916463040587</v>
+        <v>23.88336848765595</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>101.1393891184697</v>
+        <v>360.5096001396786</v>
       </c>
       <c r="B154" t="n">
-        <v>-28.0206628719081</v>
+        <v>23.83841877310205</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>103.8628231067053</v>
+        <v>364.2916798788474</v>
       </c>
       <c r="B155" t="n">
-        <v>-27.96266119433171</v>
+        <v>23.79396747837733</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>106.5792967383461</v>
+        <v>368.0646878357308</v>
       </c>
       <c r="B156" t="n">
-        <v>-27.90515715944034</v>
+        <v>23.75000666896646</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>109.2888920593529</v>
+        <v>371.8287215533352</v>
       </c>
       <c r="B157" t="n">
-        <v>-27.84814194007244</v>
+        <v>23.70652938438861</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>111.9916549354346</v>
+        <v>375.5838843116349</v>
       </c>
       <c r="B158" t="n">
-        <v>-27.79161183022592</v>
+        <v>23.66352835578362</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>114.6876452773821</v>
+        <v>379.3302847106367</v>
       </c>
       <c r="B159" t="n">
-        <v>-27.73556102078935</v>
+        <v>23.62099329882557</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>117.3769093423247</v>
+        <v>383.0680079034917</v>
       </c>
       <c r="B160" t="n">
-        <v>-27.67998602424371</v>
+        <v>23.57892051946349</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>120.0595186396056</v>
+        <v>386.7971454444943</v>
       </c>
       <c r="B161" t="n">
-        <v>-27.62487893920335</v>
+        <v>23.53730449088188</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>122.7355368351034</v>
+        <v>390.5178071955276</v>
       </c>
       <c r="B162" t="n">
-        <v>-27.57023350750216</v>
+        <v>23.49613391737134</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>125.4049972493351</v>
+        <v>394.2300865289109</v>
       </c>
       <c r="B163" t="n">
-        <v>-27.5160478550793</v>
+        <v>23.4554024458335</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>128.0679717403196</v>
+        <v>397.9340635006657</v>
       </c>
       <c r="B164" t="n">
-        <v>-27.46231439742128</v>
+        <v>23.41510701463149</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>130.7245059722375</v>
+        <v>401.6298371707234</v>
       </c>
       <c r="B165" t="n">
-        <v>-27.40902920092044</v>
+        <v>23.3752375079201</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>133.3746581638967</v>
+        <v>405.3174829503225</v>
       </c>
       <c r="B166" t="n">
-        <v>-27.35618662410858</v>
+        <v>23.33579290965987</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>136.0184717056045</v>
+        <v>408.9971174702775</v>
       </c>
       <c r="B167" t="n">
-        <v>-27.30378325539484</v>
+        <v>23.29675833376396</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>138.6559986544151</v>
+        <v>412.6688031716923</v>
       </c>
       <c r="B168" t="n">
-        <v>-27.25181429462861</v>
+        <v>23.2581348207026</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>141.2873176399989</v>
+        <v>416.3326302111098</v>
       </c>
       <c r="B169" t="n">
-        <v>-27.20027067290553</v>
+        <v>23.21991505526514</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>143.9124501891376</v>
+        <v>419.9886867556547</v>
       </c>
       <c r="B170" t="n">
-        <v>-27.14915242294651</v>
+        <v>23.18209110949063</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>146.5314486773265</v>
+        <v>423.6370564106192</v>
       </c>
       <c r="B171" t="n">
-        <v>-27.09845456736858</v>
+        <v>23.14465854600006</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>149.1443738003261</v>
+        <v>427.2778211087427</v>
       </c>
       <c r="B172" t="n">
-        <v>-27.04817075419264</v>
+        <v>23.10761033045071</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>151.7512707737611</v>
+        <v>430.9110679862848</v>
       </c>
       <c r="B173" t="n">
-        <v>-26.99829721780525</v>
+        <v>23.07094057077227</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>154.3521932568009</v>
+        <v>434.5368618918988</v>
       </c>
       <c r="B174" t="n">
-        <v>-26.94882880723663</v>
+        <v>23.0346462974154</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>156.9471882149962</v>
+        <v>438.1552957544953</v>
       </c>
       <c r="B175" t="n">
-        <v>-26.89976114697205</v>
+        <v>22.99871902890323</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>159.5362925265719</v>
+        <v>441.7664431797688</v>
       </c>
       <c r="B176" t="n">
-        <v>-26.85109170991423</v>
+        <v>22.96315498456735</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>162.1195496321736</v>
+        <v>445.3703708671885</v>
       </c>
       <c r="B177" t="n">
-        <v>-26.8028169386271</v>
+        <v>22.92795010756306</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>164.6970342862554</v>
+        <v>448.9671750555713</v>
       </c>
       <c r="B178" t="n">
-        <v>-26.75492797171076</v>
+        <v>22.8930949318928</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>167.2687701601294</v>
+        <v>452.5569093999481</v>
       </c>
       <c r="B179" t="n">
-        <v>-26.70742422952306</v>
+        <v>22.85858897780348</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>169.8348042158358</v>
+        <v>456.1396512535589</v>
       </c>
       <c r="B180" t="n">
-        <v>-26.66030159041549</v>
+        <v>22.82442723906221</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>172.3951921551935</v>
+        <v>459.7154841073787</v>
       </c>
       <c r="B181" t="n">
-        <v>-26.61355421376144</v>
+        <v>22.79060057420812</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>174.9499633869549</v>
+        <v>463.2844696378712</v>
       </c>
       <c r="B182" t="n">
-        <v>-26.56718058348638</v>
+        <v>22.75710797902345</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>177.499179321921</v>
+        <v>466.8466841796261</v>
       </c>
       <c r="B183" t="n">
-        <v>-26.52117389307615</v>
+        <v>22.72394201367488</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>180.0428667624007</v>
+        <v>470.4021928011937</v>
       </c>
       <c r="B184" t="n">
-        <v>-26.47553307014028</v>
+        <v>22.69110020653009</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>182.5810909639292</v>
+        <v>473.9510645753182</v>
       </c>
       <c r="B185" t="n">
-        <v>-26.430250689581</v>
+        <v>22.65857708425789</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>185.1138647088852</v>
+        <v>477.4933658963777</v>
       </c>
       <c r="B186" t="n">
-        <v>-26.38532789948091</v>
+        <v>22.6263683420251</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>187.641245722107</v>
+        <v>481.0291687687882</v>
       </c>
       <c r="B187" t="n">
-        <v>-26.34075843368716</v>
+        <v>22.59446853229422</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>190.1632927906457</v>
+        <v>484.5585350985593</v>
       </c>
       <c r="B188" t="n">
-        <v>-26.29653573324484</v>
+        <v>22.56287364238758</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>192.6800226008839</v>
+        <v>488.0815305880288</v>
       </c>
       <c r="B189" t="n">
-        <v>-26.25266034790761</v>
+        <v>22.53157988831719</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>195.191484835613</v>
+        <v>491.5982190630431</v>
       </c>
       <c r="B190" t="n">
-        <v>-26.20912721539069</v>
+        <v>22.50058348563923</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>197.697723561542</v>
+        <v>495.1086644351662</v>
       </c>
       <c r="B191" t="n">
-        <v>-26.16593235216379</v>
+        <v>22.4698778856402</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>200.1987680049585</v>
+        <v>498.612922511305</v>
       </c>
       <c r="B192" t="n">
-        <v>-26.12307397362211</v>
+        <v>22.43946260151024</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>202.6946698609785</v>
+        <v>502.1110602776631</v>
       </c>
       <c r="B193" t="n">
-        <v>-26.08054646175438</v>
+        <v>22.40933247490668</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>205.1854589074323</v>
+        <v>505.6031383537768</v>
       </c>
       <c r="B194" t="n">
-        <v>-26.03834838284937</v>
+        <v>22.37948278258573</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>207.6711828365425</v>
+        <v>509.089218668341</v>
       </c>
       <c r="B195" t="n">
-        <v>-25.99647457928396</v>
+        <v>22.34990781111176</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>210.1518805064794</v>
+        <v>512.5693515650913</v>
       </c>
       <c r="B196" t="n">
-        <v>-25.95492194282018</v>
+        <v>22.32060769753995</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>212.6275810354394</v>
+        <v>516.0436095300552</v>
       </c>
       <c r="B197" t="n">
-        <v>-25.9136885407365</v>
+        <v>22.29157329519397</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>215.0983338864433</v>
+        <v>519.5120390791237</v>
       </c>
       <c r="B198" t="n">
-        <v>-25.87276925448451</v>
+        <v>22.26280474825294</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>217.564157946647</v>
+        <v>522.9746941888277</v>
       </c>
       <c r="B199" t="n">
-        <v>-25.83216396110459</v>
+        <v>22.23430078746052</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>220.0251161859767</v>
+        <v>526.4316387024681</v>
       </c>
       <c r="B200" t="n">
-        <v>-25.79186515811592</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>222.4812268443102</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-25.75187279176625</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>224.9325300531457</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-25.71218327705457</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>227.3790639598205</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-25.67279311358407</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>229.8208600980541</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-25.63369989339358</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>232.2579652816601</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-25.59489874138269</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>234.6903934916068</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-25.55639042205661</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>237.1182001052315</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-25.51816840065673</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>239.5414153330668</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-25.48023039798022</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>241.9600571665101</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-25.44257653807056</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>244.3741783640036</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-25.40520071297594</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>246.7838036467551</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-25.3681014544224</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>249.1889653242699</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-25.33127620474639</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>251.5897060741655</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-25.29472065764542</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>253.9860377883181</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-25.25843553111255</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>256.3780118061705</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-25.22241512305652</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>258.7656528929257</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-25.18665777830602</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>261.1489919684758</v>
-      </c>
-      <c r="B217" t="n">
-        <v>-25.1511610719679</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>263.5280624028141</v>
-      </c>
-      <c r="B218" t="n">
-        <v>-25.11592195632061</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>265.9028950901512</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-25.08093830177689</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>268.2735137903711</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-25.04620855791545</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>270.6399627572941</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-25.01172766018817</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>273.0022546379957</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-24.977496685369</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>275.3604383127424</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-24.94350933379042</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>277.7145247911581</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-24.90976704256196</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>280.0645514011281</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-24.87626588737931</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>282.4105498784156</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-24.84300246929253</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>284.7525512034301</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-24.80997474178567</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>287.0905721507867</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-24.77718261888637</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>289.4246481233209</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-24.7446220473506</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>291.7548144234514</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-24.71228976623851</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>294.0810795444797</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-24.68018689028949</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>296.4034876393523</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-24.64830820796186</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>298.7220665072102</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-24.61665186986413</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>301.0368265276322</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-24.58521841932423</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>303.3478121472127</v>
-      </c>
-      <c r="B235" t="n">
-        <v>-24.55400239438464</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>305.655041791193</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-24.5230034535643</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>307.9585404835648</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-24.49221991620853</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>310.2583354813619</v>
-      </c>
-      <c r="B238" t="n">
-        <v>-24.46164897859153</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>312.5544577783339</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-24.43128816692151</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>314.8469242006403</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-24.40113699838976</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>317.1357644169303</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-24.37119282431983</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>319.4210035646142</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-24.3414532335679</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>321.7026654007137</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-24.3119166535979</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>323.9807724699985</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-24.28258183344646</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>326.2553599585481</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-24.25344484851174</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>328.5264382490335</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-24.22450635604262</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>330.7940410322378</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-24.19576277251983</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>333.0581794496345</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-24.16721448080222</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>335.3188962244183</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-24.13885616758217</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>337.5762001002515</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-24.11068885809815</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>339.8301154423097</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-24.08271049034654</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>342.0806747885135</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-24.05491756020432</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>344.3278845937755</v>
-      </c>
-      <c r="B253" t="n">
-        <v>-24.02731174033755</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>346.5717889253458</v>
-      </c>
-      <c r="B254" t="n">
-        <v>-23.99988640387843</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>348.8123881941766</v>
-      </c>
-      <c r="B255" t="n">
-        <v>-23.9726450662355</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>351.0497179912356</v>
-      </c>
-      <c r="B256" t="n">
-        <v>-23.94558307000885</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>353.2838000845751</v>
-      </c>
-      <c r="B257" t="n">
-        <v>-23.91869827146272</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>355.5146458700768</v>
-      </c>
-      <c r="B258" t="n">
-        <v>-23.89199185079706</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>357.7422901336407</v>
-      </c>
-      <c r="B259" t="n">
-        <v>-23.86545920094263</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>359.9667468033045</v>
-      </c>
-      <c r="B260" t="n">
-        <v>-23.83910062064021</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>362.1880319483004</v>
-      </c>
-      <c r="B261" t="n">
-        <v>-23.81291505382558</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>364.4061792396927</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-23.78689870556781</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>366.6212132857471</v>
-      </c>
-      <c r="B263" t="n">
-        <v>-23.76104879355299</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>368.8331251989821</v>
-      </c>
-      <c r="B264" t="n">
-        <v>-23.73537066773138</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>371.041968098467</v>
-      </c>
-      <c r="B265" t="n">
-        <v>-23.70985569657032</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>373.2477438574379</v>
-      </c>
-      <c r="B266" t="n">
-        <v>-23.68450614073868</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>375.4504787676269</v>
-      </c>
-      <c r="B267" t="n">
-        <v>-23.65931913425367</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>377.6501875271701</v>
-      </c>
-      <c r="B268" t="n">
-        <v>-23.63429446994132</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>379.8469056676726</v>
-      </c>
-      <c r="B269" t="n">
-        <v>-23.6094272545349</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>382.040634718514</v>
-      </c>
-      <c r="B270" t="n">
-        <v>-23.58472053339732</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>384.2314010650135</v>
-      </c>
-      <c r="B271" t="n">
-        <v>-23.56017045314136</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>386.4192244665331</v>
-      </c>
-      <c r="B272" t="n">
-        <v>-23.53577626872407</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>388.6041229073313</v>
-      </c>
-      <c r="B273" t="n">
-        <v>-23.51153635685359</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>390.7861252290634</v>
-      </c>
-      <c r="B274" t="n">
-        <v>-23.48744720770787</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>392.965232011035</v>
-      </c>
-      <c r="B275" t="n">
-        <v>-23.46351219740397</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>395.1414739367303</v>
-      </c>
-      <c r="B276" t="n">
-        <v>-23.43972622960873</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>397.3148601150503</v>
-      </c>
-      <c r="B277" t="n">
-        <v>-23.4160909404519</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>399.4854170402808</v>
-      </c>
-      <c r="B278" t="n">
-        <v>-23.39260271936845</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>401.6531718559511</v>
-      </c>
-      <c r="B279" t="n">
-        <v>-23.36925840290648</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>403.8181232355242</v>
-      </c>
-      <c r="B280" t="n">
-        <v>-23.34606126265845</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>405.9802970759467</v>
-      </c>
-      <c r="B281" t="n">
-        <v>-23.32300772535581</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>408.1397120428952</v>
-      </c>
-      <c r="B282" t="n">
-        <v>-23.3000971247248</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>410.2963924050523</v>
-      </c>
-      <c r="B283" t="n">
-        <v>-23.27732549010004</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>412.4503429658284</v>
-      </c>
-      <c r="B284" t="n">
-        <v>-23.25469523817646</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>414.6015841670525</v>
-      </c>
-      <c r="B285" t="n">
-        <v>-23.23220485737342</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>416.7501415102981</v>
-      </c>
-      <c r="B286" t="n">
-        <v>-23.20985054472568</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>418.8960210776605</v>
-      </c>
-      <c r="B287" t="n">
-        <v>-23.18763317017143</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>421.03924723442</v>
-      </c>
-      <c r="B288" t="n">
-        <v>-23.16555121737662</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>423.1798329081385</v>
-      </c>
-      <c r="B289" t="n">
-        <v>-23.14360340355657</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>425.3177996239903</v>
-      </c>
-      <c r="B290" t="n">
-        <v>-23.12178740505688</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>427.4531581804237</v>
-      </c>
-      <c r="B291" t="n">
-        <v>-23.1001038010635</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>429.5859316359476</v>
-      </c>
-      <c r="B292" t="n">
-        <v>-23.07854942879179</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>431.7161225781058</v>
-      </c>
-      <c r="B293" t="n">
-        <v>-23.0571266340106</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>433.8437600546851</v>
-      </c>
-      <c r="B294" t="n">
-        <v>-23.03583137332242</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>435.9688616664137</v>
-      </c>
-      <c r="B295" t="n">
-        <v>-23.01466181645122</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>438.0914292978539</v>
-      </c>
-      <c r="B296" t="n">
-        <v>-22.99362061135386</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>440.2114894411822</v>
-      </c>
-      <c r="B297" t="n">
-        <v>-22.97270362587658</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>442.3290539630268</v>
-      </c>
-      <c r="B298" t="n">
-        <v>-22.95191063976645</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>444.4441403824511</v>
-      </c>
-      <c r="B299" t="n">
-        <v>-22.93124081600713</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>446.5567599613329</v>
-      </c>
-      <c r="B300" t="n">
-        <v>-22.91069299044567</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>448.6669341385415</v>
-      </c>
-      <c r="B301" t="n">
-        <v>-22.89026532463314</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>450.774674906692</v>
-      </c>
-      <c r="B302" t="n">
-        <v>-22.86995734522698</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>452.8799962878217</v>
-      </c>
-      <c r="B303" t="n">
-        <v>-22.84976869282087</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>454.9829130629338</v>
-      </c>
-      <c r="B304" t="n">
-        <v>-22.82969722782069</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>457.0834406638531</v>
-      </c>
-      <c r="B305" t="n">
-        <v>-22.80974299035376</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>459.1815926167037</v>
-      </c>
-      <c r="B306" t="n">
-        <v>-22.78990441789062</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>461.2773870233124</v>
-      </c>
-      <c r="B307" t="n">
-        <v>-22.7701798847219</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>463.3708298844325</v>
-      </c>
-      <c r="B308" t="n">
-        <v>-22.75057081159146</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>465.461938332489</v>
-      </c>
-      <c r="B309" t="n">
-        <v>-22.73107464928291</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>467.5507349576617</v>
-      </c>
-      <c r="B310" t="n">
-        <v>-22.71168970965119</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>469.6372303161179</v>
-      </c>
-      <c r="B311" t="n">
-        <v>-22.69241437679491</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>471.7214336024674</v>
-      </c>
-      <c r="B312" t="n">
-        <v>-22.67324936202467</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>473.8033520360213</v>
-      </c>
-      <c r="B313" t="n">
-        <v>-22.65419676019068</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>475.8830176711227</v>
-      </c>
-      <c r="B314" t="n">
-        <v>-22.63524826350923</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>477.9604277231791</v>
-      </c>
-      <c r="B315" t="n">
-        <v>-22.61640938542932</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>480.0356047813542</v>
-      </c>
-      <c r="B316" t="n">
-        <v>-22.59767643733213</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>482.1085589142247</v>
-      </c>
-      <c r="B317" t="n">
-        <v>-22.57904845650317</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>484.1793028264844</v>
-      </c>
-      <c r="B318" t="n">
-        <v>-22.56052604063965</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>486.2478461018933</v>
-      </c>
-      <c r="B319" t="n">
-        <v>-22.54210851338531</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>488.3142124132015</v>
-      </c>
-      <c r="B320" t="n">
-        <v>-22.52379171579694</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>490.3784063101662</v>
-      </c>
-      <c r="B321" t="n">
-        <v>-22.50557768715821</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>492.4404437266592</v>
-      </c>
-      <c r="B322" t="n">
-        <v>-22.48746430202985</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>494.5003329336581</v>
-      </c>
-      <c r="B323" t="n">
-        <v>-22.46945259587086</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>496.5580914715204</v>
-      </c>
-      <c r="B324" t="n">
-        <v>-22.45153995059568</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>498.6137263303827</v>
-      </c>
-      <c r="B325" t="n">
-        <v>-22.43372736909585</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>500.6672577546502</v>
-      </c>
-      <c r="B326" t="n">
-        <v>-22.41601065589958</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>502.7186937044413</v>
-      </c>
-      <c r="B327" t="n">
-        <v>-22.39839086693606</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>504.7680446761051</v>
-      </c>
-      <c r="B328" t="n">
-        <v>-22.38086913393872</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>506.8153226772216</v>
-      </c>
-      <c r="B329" t="n">
-        <v>-22.36344271801573</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>508.8605404004953</v>
-      </c>
-      <c r="B330" t="n">
-        <v>-22.34611171414343</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>510.9037166269148</v>
-      </c>
-      <c r="B331" t="n">
-        <v>-22.32887250745346</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>512.9448561244976</v>
-      </c>
-      <c r="B332" t="n">
-        <v>-22.31172663920308</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>514.9839657986156</v>
-      </c>
-      <c r="B333" t="n">
-        <v>-22.29467626138702</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>517.0210672302898</v>
-      </c>
-      <c r="B334" t="n">
-        <v>-22.27771565687027</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>519.0561706395558</v>
-      </c>
-      <c r="B335" t="n">
-        <v>-22.26084433290525</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>521.0892789517707</v>
-      </c>
-      <c r="B336" t="n">
-        <v>-22.24406599524516</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>523.1204139174296</v>
-      </c>
-      <c r="B337" t="n">
-        <v>-22.2273755243277</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>525.1495797382164</v>
-      </c>
-      <c r="B338" t="n">
-        <v>-22.21077501935564</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>527.1767906280155</v>
-      </c>
-      <c r="B339" t="n">
-        <v>-22.19426192493165</v>
+        <v>22.20605334012077</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_40.xlsx
+++ b/Reverse_anglesIn_40.xlsx
@@ -440,1594 +440,1594 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-527.3666513385953</v>
+        <v>-526.4339260313019</v>
       </c>
       <c r="B2" t="n">
-        <v>53.34522052667985</v>
+        <v>53.29551747526514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-509.9942278109555</v>
+        <v>-509.1405807743475</v>
       </c>
       <c r="B3" t="n">
-        <v>52.4140814327994</v>
+        <v>52.36806133956255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-494.0108664498225</v>
+        <v>-493.2210543278782</v>
       </c>
       <c r="B4" t="n">
-        <v>51.54916347178839</v>
+        <v>51.50626871556886</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-479.1585686228701</v>
+        <v>-478.4212500010859</v>
       </c>
       <c r="B5" t="n">
-        <v>50.74081137622747</v>
+        <v>50.70060622768894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-465.244042677803</v>
+        <v>-464.5506468598391</v>
       </c>
       <c r="B6" t="n">
-        <v>49.98147033431614</v>
+        <v>49.94361298881365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-452.1190510043985</v>
+        <v>-451.4628853573752</v>
       </c>
       <c r="B7" t="n">
-        <v>49.26510987615542</v>
+        <v>49.22932146337475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-439.6673456340229</v>
+        <v>-439.0431483571489</v>
       </c>
       <c r="B8" t="n">
-        <v>48.58681134306656</v>
+        <v>48.55286539534496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-427.796422700384</v>
+        <v>-427.1999900775857</v>
       </c>
       <c r="B9" t="n">
-        <v>47.94252059207697</v>
+        <v>47.91023061300749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-416.4314621762791</v>
+        <v>-415.8592713361713</v>
       </c>
       <c r="B10" t="n">
-        <v>47.32884376076498</v>
+        <v>47.29804472435634</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-405.5110457622173</v>
+        <v>-404.9603137698872</v>
       </c>
       <c r="B11" t="n">
-        <v>46.74289808096629</v>
+        <v>46.71345956013232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-394.9844090202708</v>
+        <v>-394.4526757809883</v>
       </c>
       <c r="B12" t="n">
-        <v>46.18222973420714</v>
+        <v>46.15402779691252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-384.8088534151183</v>
+        <v>-384.2941794270938</v>
       </c>
       <c r="B13" t="n">
-        <v>45.64470490806607</v>
+        <v>45.61764330020108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-374.9484695966865</v>
+        <v>-374.4490861484809</v>
       </c>
       <c r="B14" t="n">
-        <v>45.1284820820407</v>
+        <v>45.102466110612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-365.3725132855076</v>
+        <v>-364.8870456199379</v>
       </c>
       <c r="B15" t="n">
-        <v>44.63193468753827</v>
+        <v>44.60689332188133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-356.0546982485595</v>
+        <v>-355.5818826869706</v>
       </c>
       <c r="B16" t="n">
-        <v>44.15363739705821</v>
+        <v>44.12950065644905</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-346.9722573744222</v>
+        <v>-346.5109681744322</v>
       </c>
       <c r="B17" t="n">
-        <v>43.69232118458156</v>
+        <v>43.66902415752632</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-338.1054056205831</v>
+        <v>-337.6547637949596</v>
       </c>
       <c r="B18" t="n">
-        <v>43.24685541132699</v>
+        <v>43.22434951868831</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-329.436848699732</v>
+        <v>-328.9959655709807</v>
       </c>
       <c r="B19" t="n">
-        <v>42.81622750267693</v>
+        <v>42.79445810529274</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-320.95137289103</v>
+        <v>-320.5194967018657</v>
       </c>
       <c r="B20" t="n">
-        <v>42.39952485721386</v>
+        <v>42.37844555929662</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-312.6355143348552</v>
+        <v>-312.2120612131366</v>
       </c>
       <c r="B21" t="n">
-        <v>41.9959201051746</v>
+        <v>41.97549679878543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-304.4773645666846</v>
+        <v>-304.0617377391433</v>
       </c>
       <c r="B22" t="n">
-        <v>41.60466615815344</v>
+        <v>41.58486029570061</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-296.46631866734</v>
+        <v>-296.0579855161305</v>
       </c>
       <c r="B23" t="n">
-        <v>41.22508333199269</v>
+        <v>41.20585978447414</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-288.5928509185436</v>
+        <v>-288.1913635474653</v>
       </c>
       <c r="B24" t="n">
-        <v>40.85654674509939</v>
+        <v>40.83787629061211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-280.8484144901499</v>
+        <v>-280.453356048537</v>
       </c>
       <c r="B25" t="n">
-        <v>40.49848430747446</v>
+        <v>40.48033871653327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-273.2253561780332</v>
+        <v>-272.8363366673292</v>
       </c>
       <c r="B26" t="n">
-        <v>40.15037502575823</v>
+        <v>40.13272689726595</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-265.7166806058992</v>
+        <v>-265.333360317613</v>
       </c>
       <c r="B27" t="n">
-        <v>39.81173078993532</v>
+        <v>39.79455624615211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-258.3161164140629</v>
+        <v>-257.9382141375989</v>
       </c>
       <c r="B28" t="n">
-        <v>39.48210805625518</v>
+        <v>39.46538781369296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-251.0179255310152</v>
+        <v>-250.6451333089627</v>
       </c>
       <c r="B29" t="n">
-        <v>39.16109241935794</v>
+        <v>39.14480319253821</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-243.8168660133905</v>
+        <v>-243.4489280493665</v>
       </c>
       <c r="B30" t="n">
-        <v>38.84829827705087</v>
+        <v>38.83242109067315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-236.7081621182838</v>
+        <v>-236.3448444246867</v>
       </c>
       <c r="B31" t="n">
-        <v>38.54336873672298</v>
+        <v>38.52788594569672</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-229.6874013301913</v>
+        <v>-229.3285149839998</v>
       </c>
       <c r="B32" t="n">
-        <v>38.24596750792806</v>
+        <v>38.23086539461229</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-222.7506064410126</v>
+        <v>-222.3959155864984</v>
       </c>
       <c r="B33" t="n">
-        <v>37.95578885536624</v>
+        <v>37.94104798340913</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-215.8940090376885</v>
+        <v>-215.5433799714392</v>
       </c>
       <c r="B34" t="n">
-        <v>37.67253542723353</v>
+        <v>37.65814667159026</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-209.1142507143248</v>
+        <v>-208.767468772483</v>
       </c>
       <c r="B35" t="n">
-        <v>37.39594170010776</v>
+        <v>37.38188647939702</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-202.4081019203196</v>
+        <v>-202.0650341969947</v>
       </c>
       <c r="B36" t="n">
-        <v>37.12574494417843</v>
+        <v>37.11201314431436</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-195.7726269710354</v>
+        <v>-195.4331185987315</v>
       </c>
       <c r="B37" t="n">
-        <v>36.86170459821224</v>
+        <v>36.84828314710902</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-189.2051467603617</v>
+        <v>-188.8690407272937</v>
       </c>
       <c r="B38" t="n">
-        <v>36.60359954072486</v>
+        <v>36.59047470301241</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-182.7030385192697</v>
+        <v>-182.3702546642298</v>
       </c>
       <c r="B39" t="n">
-        <v>36.35120674221697</v>
+        <v>36.33837300599746</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-176.2639982290257</v>
+        <v>-175.9343899818407</v>
       </c>
       <c r="B40" t="n">
-        <v>36.1043316598007</v>
+        <v>36.09177560151602</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-169.8857734718117</v>
+        <v>-169.5592413070059</v>
       </c>
       <c r="B41" t="n">
-        <v>35.86277889155583</v>
+        <v>35.85049221737749</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-163.566295588466</v>
+        <v>-163.2427493299429</v>
       </c>
       <c r="B42" t="n">
-        <v>35.62636806142479</v>
+        <v>35.6143432050048</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-157.3036410617164</v>
+        <v>-156.982955765896</v>
       </c>
       <c r="B43" t="n">
-        <v>35.39492996079856</v>
+        <v>35.38315504830484</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-151.0959640125903</v>
+        <v>-150.778060504197</v>
       </c>
       <c r="B44" t="n">
-        <v>35.16829943961899</v>
+        <v>35.15676770300216</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-144.9415515651355</v>
+        <v>-144.6263571818742</v>
       </c>
       <c r="B45" t="n">
-        <v>34.94632227667574</v>
+        <v>34.93502747630071</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-138.83879030175</v>
+        <v>-138.526196173977</v>
       </c>
       <c r="B46" t="n">
-        <v>34.72885186991046</v>
+        <v>34.71778331603518</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-132.7861439710826</v>
+        <v>-132.476095830299</v>
       </c>
       <c r="B47" t="n">
-        <v>34.51574688406224</v>
+        <v>34.50490015993896</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-126.7821971849268</v>
+        <v>-126.4746080388748</v>
       </c>
       <c r="B48" t="n">
-        <v>34.30687705726358</v>
+        <v>34.29624362616774</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-120.8255494131272</v>
+        <v>-120.5203602521178</v>
       </c>
       <c r="B49" t="n">
-        <v>34.1021106768394</v>
+        <v>34.09168532442623</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-114.9149368719397</v>
+        <v>-114.6120707672621</v>
       </c>
       <c r="B50" t="n">
-        <v>33.90132971317745</v>
+        <v>33.89110474339028</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-109.0491128895598</v>
+        <v>-108.7485174500411</v>
       </c>
       <c r="B51" t="n">
-        <v>33.70441543745437</v>
+        <v>33.69438618035357</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-103.2269167423613</v>
+        <v>-102.9285381014836</v>
       </c>
       <c r="B52" t="n">
-        <v>33.51125729484263</v>
+        <v>33.50141867250678</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-97.44723950861209</v>
+        <v>-97.15103243857003</v>
       </c>
       <c r="B53" t="n">
-        <v>33.32174879955261</v>
+        <v>33.31209678300124</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-91.70904170945651</v>
+        <v>-91.41493795001206</v>
       </c>
       <c r="B54" t="n">
-        <v>33.13579007885546</v>
+        <v>33.12631764669972</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-86.01130057196066</v>
+        <v>-85.71924461466787</v>
       </c>
       <c r="B55" t="n">
-        <v>32.95328139001759</v>
+        <v>32.94398296985759</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-80.35306751984844</v>
+        <v>-80.06302131716689</v>
       </c>
       <c r="B56" t="n">
-        <v>32.77413049983634</v>
+        <v>32.7650026895289</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-74.73340619992439</v>
+        <v>-74.44532826229575</v>
       </c>
       <c r="B57" t="n">
-        <v>32.59824522697529</v>
+        <v>32.58928404090935</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-69.15145404364844</v>
+        <v>-68.86529319863831</v>
       </c>
       <c r="B58" t="n">
-        <v>32.42554104834734</v>
+        <v>32.41674127741568</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-63.60637432547384</v>
+        <v>-63.32207657964816</v>
       </c>
       <c r="B59" t="n">
-        <v>32.25593546065841</v>
+        <v>32.24729135641392</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-58.09733292239832</v>
+        <v>-57.81488158056131</v>
       </c>
       <c r="B60" t="n">
-        <v>32.08934496862436</v>
+        <v>32.08085568567975</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-52.62359451021487</v>
+        <v>-52.34292288548582</v>
       </c>
       <c r="B61" t="n">
-        <v>31.92569765008554</v>
+        <v>31.91735565367977</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-47.18438254801946</v>
+        <v>-46.90548113289618</v>
       </c>
       <c r="B62" t="n">
-        <v>31.76491508959757</v>
+        <v>31.75672026689377</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-41.77899839835215</v>
+        <v>-41.50180865135385</v>
       </c>
       <c r="B63" t="n">
-        <v>31.60692797906247</v>
+        <v>31.59887381133561</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-36.40676111660774</v>
+        <v>-36.13125345924396</v>
       </c>
       <c r="B64" t="n">
-        <v>31.45166843007456</v>
+        <v>31.44375204904645</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-31.06698669470967</v>
+        <v>-30.79314335356146</v>
       </c>
       <c r="B65" t="n">
-        <v>31.29906715051368</v>
+        <v>31.2912873655149</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-25.7590532393993</v>
+        <v>-25.48681615652993</v>
       </c>
       <c r="B66" t="n">
-        <v>31.14906227666689</v>
+        <v>31.1414123356443</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-20.48232444904593</v>
+        <v>-20.21168672129805</v>
       </c>
       <c r="B67" t="n">
-        <v>31.00158917819022</v>
+        <v>30.99406925098221</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-15.23623492836749</v>
+        <v>-14.9671625132644</v>
       </c>
       <c r="B68" t="n">
-        <v>30.85659212912385</v>
+        <v>30.84919864141389</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-10.02018658381651</v>
+        <v>-9.752652764410955</v>
       </c>
       <c r="B69" t="n">
-        <v>30.71401006497578</v>
+        <v>30.7067404340595</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-4.833629399481316</v>
+        <v>-4.567593694415546</v>
       </c>
       <c r="B70" t="n">
-        <v>30.57378802550336</v>
+        <v>30.56663774762423</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>0.3239673422480734</v>
+        <v>0.5885211568830215</v>
       </c>
       <c r="B71" t="n">
-        <v>30.43587281371589</v>
+        <v>30.42884064029974</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>5.453124991940237</v>
+        <v>5.716255553058147</v>
       </c>
       <c r="B72" t="n">
-        <v>30.30021216840507</v>
+        <v>30.29329094422907</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>10.55436945092332</v>
+        <v>10.81606524510127</v>
       </c>
       <c r="B73" t="n">
-        <v>30.16675236158841</v>
+        <v>30.15994471989659</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>15.62816752593621</v>
+        <v>15.8884653132984</v>
       </c>
       <c r="B74" t="n">
-        <v>30.0354475511017</v>
+        <v>30.02874935581323</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>20.67501158793305</v>
+        <v>20.93393877503246</v>
       </c>
       <c r="B75" t="n">
-        <v>29.90624773857557</v>
+        <v>29.89965607875806</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>25.69536014494162</v>
+        <v>25.95293507342575</v>
       </c>
       <c r="B76" t="n">
-        <v>29.7791072234085</v>
+        <v>29.772620398232</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>30.68965881062787</v>
+        <v>30.94589641737045</v>
       </c>
       <c r="B77" t="n">
-        <v>29.65398145012811</v>
+        <v>29.64759836501347</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>35.65832693111585</v>
+        <v>35.91326887649836</v>
       </c>
       <c r="B78" t="n">
-        <v>29.53082940182766</v>
+        <v>29.52454511800818</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>40.60182622426154</v>
+        <v>40.85547018275395</v>
       </c>
       <c r="B79" t="n">
-        <v>29.40960354617328</v>
+        <v>29.40341932623403</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45.52053662298073</v>
+        <v>45.77292813793603</v>
       </c>
       <c r="B80" t="n">
-        <v>29.29026760347752</v>
+        <v>29.28417783048175</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>50.41487576148518</v>
+        <v>50.66601696563969</v>
       </c>
       <c r="B81" t="n">
-        <v>29.17277952123228</v>
+        <v>29.16678474982587</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>55.28522664043558</v>
+        <v>55.53514325930038</v>
       </c>
       <c r="B82" t="n">
-        <v>29.05710174226889</v>
+        <v>29.05119922757399</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>60.13198097199756</v>
+        <v>60.38069534748958</v>
       </c>
       <c r="B83" t="n">
-        <v>28.94319526015408</v>
+        <v>28.93738262508203</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>64.955500164496</v>
+        <v>65.20302906594864</v>
       </c>
       <c r="B84" t="n">
-        <v>28.83102512440108</v>
+        <v>28.82530084584486</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>69.75615950434731</v>
+        <v>70.00252706915377</v>
       </c>
       <c r="B85" t="n">
-        <v>28.72055387950209</v>
+        <v>28.71491537322521</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>74.53430278233131</v>
+        <v>74.77951438575752</v>
       </c>
       <c r="B86" t="n">
-        <v>28.61174851974162</v>
+        <v>28.60619577883514</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>79.29027834536969</v>
+        <v>79.53436495163527</v>
       </c>
       <c r="B87" t="n">
-        <v>28.50457504816639</v>
+        <v>28.49910447861432</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>84.02442076726636</v>
+        <v>84.26739462611131</v>
       </c>
       <c r="B88" t="n">
-        <v>28.39900099930976</v>
+        <v>28.3936115843569</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88.73707307253477</v>
+        <v>88.97894897557978</v>
       </c>
       <c r="B89" t="n">
-        <v>28.29499269335637</v>
+        <v>28.28968313367962</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>93.42853489999726</v>
+        <v>93.66933485826675</v>
       </c>
       <c r="B90" t="n">
-        <v>28.19252231013683</v>
+        <v>28.18729024544739</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>98.0991515634325</v>
+        <v>98.33887768614532</v>
       </c>
       <c r="B91" t="n">
-        <v>28.09155513404954</v>
+        <v>28.08640119789675</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>102.7492027858676</v>
+        <v>102.9878825745373</v>
       </c>
       <c r="B92" t="n">
-        <v>27.99206607918012</v>
+        <v>27.98698679154139</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>107.3790143567604</v>
+        <v>107.6166612464277</v>
       </c>
       <c r="B93" t="n">
-        <v>27.8940225895921</v>
+        <v>27.88901680400081</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>111.9888537011079</v>
+        <v>112.2254808915274</v>
       </c>
       <c r="B94" t="n">
-        <v>27.79740097954061</v>
+        <v>27.79246757947745</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>116.5790454070252</v>
+        <v>116.8146615363652</v>
       </c>
       <c r="B95" t="n">
-        <v>27.7021682586178</v>
+        <v>27.697306905208</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>121.1498294427346</v>
+        <v>121.3844660816917</v>
       </c>
       <c r="B96" t="n">
-        <v>27.6083046304228</v>
+        <v>27.60351134001476</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>125.7015286259417</v>
+        <v>125.9351849038241</v>
       </c>
       <c r="B97" t="n">
-        <v>27.51577697578184</v>
+        <v>27.51105250105742</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>130.2343728867707</v>
+        <v>130.4670619078853</v>
       </c>
       <c r="B98" t="n">
-        <v>27.42456626518585</v>
+        <v>27.41990963331532</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>134.7486560430086</v>
+        <v>134.9804030697643</v>
       </c>
       <c r="B99" t="n">
-        <v>27.33464353276968</v>
+        <v>27.33005158732114</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>139.2446308021117</v>
+        <v>139.4754332968331</v>
       </c>
       <c r="B100" t="n">
-        <v>27.24598580525987</v>
+        <v>27.24145977091045</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>143.7225411315425</v>
+        <v>143.9524306781309</v>
       </c>
       <c r="B101" t="n">
-        <v>27.15857137334288</v>
+        <v>27.15410708279143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>148.1826573617968</v>
+        <v>148.4116410915129</v>
       </c>
       <c r="B102" t="n">
-        <v>27.07237399363609</v>
+        <v>27.06797128810337</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>152.625222907533</v>
+        <v>152.8533048757419</v>
       </c>
       <c r="B103" t="n">
-        <v>26.98737155388963</v>
+        <v>26.98303064401714</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>157.0504641574789</v>
+        <v>157.2776591015959</v>
       </c>
       <c r="B104" t="n">
-        <v>26.90354457492129</v>
+        <v>26.89926389696467</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>161.4586268570087</v>
+        <v>161.6849560472673</v>
       </c>
       <c r="B105" t="n">
-        <v>26.82087009146326</v>
+        <v>26.81664703783454</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>165.8499386144054</v>
+        <v>166.075403683118</v>
       </c>
       <c r="B106" t="n">
-        <v>26.73932775540198</v>
+        <v>26.73516296080528</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>170.2246328442211</v>
+        <v>170.4492495889094</v>
       </c>
       <c r="B107" t="n">
-        <v>26.65889622727696</v>
+        <v>26.65478785317423</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>174.5829321522633</v>
+        <v>174.8067118545003</v>
       </c>
       <c r="B108" t="n">
-        <v>26.57955566709673</v>
+        <v>26.57550294526569</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>178.9250553357412</v>
+        <v>179.1480065899464</v>
       </c>
       <c r="B109" t="n">
-        <v>26.50128664536734</v>
+        <v>26.49728885369434</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>183.2512157165432</v>
+        <v>183.4733584177804</v>
       </c>
       <c r="B110" t="n">
-        <v>26.42407047864653</v>
+        <v>26.42012513447773</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>187.5616269436209</v>
+        <v>187.7829670142075</v>
       </c>
       <c r="B111" t="n">
-        <v>26.34788784750599</v>
+        <v>26.34399495158983</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>191.8565013500114</v>
+        <v>192.0770467502778</v>
       </c>
       <c r="B112" t="n">
-        <v>26.27272008908676</v>
+        <v>26.26887898696094</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>196.1360402639012</v>
+        <v>196.3558001829628</v>
       </c>
       <c r="B113" t="n">
-        <v>26.19854966695273</v>
+        <v>26.19475969670586</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>200.4004529426303</v>
+        <v>200.6194381181764</v>
       </c>
       <c r="B114" t="n">
-        <v>26.12535761843665</v>
+        <v>26.12161779032836</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>204.6499143623267</v>
+        <v>204.8681304067867</v>
       </c>
       <c r="B115" t="n">
-        <v>26.05313060364635</v>
+        <v>26.04944096969365</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>208.8846419414144</v>
+        <v>209.1021042414887</v>
       </c>
       <c r="B116" t="n">
-        <v>25.98184786216422</v>
+        <v>25.97820644107185</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>213.1048078684424</v>
+        <v>213.3215297857625</v>
       </c>
       <c r="B117" t="n">
-        <v>25.91149601508388</v>
+        <v>25.90790148761089</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>217.3106150015495</v>
+        <v>217.5265986541984</v>
       </c>
       <c r="B118" t="n">
-        <v>25.84205663941117</v>
+        <v>25.83850947889797</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>221.5022377713888</v>
+        <v>221.7174978285805</v>
       </c>
       <c r="B119" t="n">
-        <v>25.77351555664203</v>
+        <v>25.77001384445312</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>225.679852618443</v>
+        <v>225.8944082047541</v>
       </c>
       <c r="B120" t="n">
-        <v>25.70585815622891</v>
+        <v>25.70239956047029</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>229.8436611834628</v>
+        <v>230.057501580712</v>
       </c>
       <c r="B121" t="n">
-        <v>25.63906521827714</v>
+        <v>25.63565236703537</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>233.9938232731534</v>
+        <v>234.2069627357162</v>
       </c>
       <c r="B122" t="n">
-        <v>25.57312475670203</v>
+        <v>25.56975606066319</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>238.1305070738432</v>
+        <v>238.3429535070838</v>
       </c>
       <c r="B123" t="n">
-        <v>25.50802298490308</v>
+        <v>25.50469792253373</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>242.2538860666052</v>
+        <v>242.4656592045429</v>
       </c>
       <c r="B124" t="n">
-        <v>25.44374525697041</v>
+        <v>25.44046094620451</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>246.3641276523549</v>
+        <v>246.5752274753005</v>
       </c>
       <c r="B125" t="n">
-        <v>25.38027730440497</v>
+        <v>25.37703463665761</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>250.4613926644174</v>
+        <v>250.6718369521371</v>
       </c>
       <c r="B126" t="n">
-        <v>25.3176063563223</v>
+        <v>25.31440281564559</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>254.5458508587721</v>
+        <v>254.7556352759844</v>
       </c>
       <c r="B127" t="n">
-        <v>25.25571725559903</v>
+        <v>25.25255473125179</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>258.6176600046113</v>
+        <v>258.8267974250736</v>
       </c>
       <c r="B128" t="n">
-        <v>25.19459762245575</v>
+        <v>25.19147434836039</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>262.6769743095559</v>
+        <v>262.8854705200417</v>
       </c>
       <c r="B129" t="n">
-        <v>25.13423453716386</v>
+        <v>25.13115038865869</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>266.7239353361954</v>
+        <v>266.9318073190088</v>
       </c>
       <c r="B130" t="n">
-        <v>25.07461814137346</v>
+        <v>25.07157066128796</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>270.7587149455091</v>
+        <v>270.9659552221091</v>
       </c>
       <c r="B131" t="n">
-        <v>25.01573208249168</v>
+        <v>25.01272358189608</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>274.7814542730651</v>
+        <v>274.9880840200122</v>
       </c>
       <c r="B132" t="n">
-        <v>24.95756594371831</v>
+        <v>24.95459326591053</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>278.7922893914447</v>
+        <v>278.9983120766514</v>
       </c>
       <c r="B133" t="n">
-        <v>24.90010989914578</v>
+        <v>24.89717304161593</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>282.7913799877319</v>
+        <v>282.9968009635971</v>
       </c>
       <c r="B134" t="n">
-        <v>24.84334949537246</v>
+        <v>24.84044837776191</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>286.7788673697694</v>
+        <v>286.9836944448364</v>
       </c>
       <c r="B135" t="n">
-        <v>24.78727329384485</v>
+        <v>24.78440720609733</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>290.7548753246294</v>
+        <v>290.9591230605871</v>
       </c>
       <c r="B136" t="n">
-        <v>24.73187361822296</v>
+        <v>24.72904050200296</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>294.7195687719632</v>
+        <v>294.9232342052225</v>
       </c>
       <c r="B137" t="n">
-        <v>24.67713395411884</v>
+        <v>24.67433542524249</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>298.6730587992673</v>
+        <v>298.8761506621237</v>
       </c>
       <c r="B138" t="n">
-        <v>24.62304842453295</v>
+        <v>24.62028348327629</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>302.6154863111994</v>
+        <v>302.8180143180623</v>
       </c>
       <c r="B139" t="n">
-        <v>24.56960568175119</v>
+        <v>24.5668730281781</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>306.5469898144007</v>
+        <v>306.7489554560355</v>
       </c>
       <c r="B140" t="n">
-        <v>24.51679327959192</v>
+        <v>24.51409381304583</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>310.4676896667607</v>
+        <v>310.6691058229687</v>
       </c>
       <c r="B141" t="n">
-        <v>24.4646033190104</v>
+        <v>24.4619348238474</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>314.3777201596346</v>
+        <v>314.5785839453862</v>
       </c>
       <c r="B142" t="n">
-        <v>24.41302471947924</v>
+        <v>24.41038883103041</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>318.2772028937355</v>
+        <v>318.4775343476232</v>
       </c>
       <c r="B143" t="n">
-        <v>24.36204811894392</v>
+        <v>24.35944150285252</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>322.1662608928137</v>
+        <v>322.3660603254131</v>
       </c>
       <c r="B144" t="n">
-        <v>24.31166439817303</v>
+        <v>24.30908777166981</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>326.0450240762627</v>
+        <v>326.2442992725518</v>
       </c>
       <c r="B145" t="n">
-        <v>24.2618626156342</v>
+        <v>24.25931504975804</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>329.9136034088064</v>
+        <v>330.1123537347818</v>
       </c>
       <c r="B146" t="n">
-        <v>24.21263489023589</v>
+        <v>24.21011791616239</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>333.7721265818602</v>
+        <v>333.9703606170653</v>
       </c>
       <c r="B147" t="n">
-        <v>24.16397124969116</v>
+        <v>24.16148314836084</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>337.6206981931005</v>
+        <v>337.8184246131083</v>
       </c>
       <c r="B148" t="n">
-        <v>24.11586450261898</v>
+        <v>24.11340455625808</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>341.4594403352029</v>
+        <v>341.656660618356</v>
       </c>
       <c r="B149" t="n">
-        <v>24.06830456168824</v>
+        <v>24.06587369367615</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>345.2884704479746</v>
+        <v>345.4851977705497</v>
       </c>
       <c r="B150" t="n">
-        <v>24.02128237642353</v>
+        <v>24.01887787445497</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>349.1078896705382</v>
+        <v>349.3041212463379</v>
       </c>
       <c r="B151" t="n">
-        <v>23.97479132793753</v>
+        <v>23.97241485481642</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>352.9178092940315</v>
+        <v>353.113560544865</v>
       </c>
       <c r="B152" t="n">
-        <v>23.92882303165834</v>
+        <v>23.92647225051557</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>356.7183432412424</v>
+        <v>356.9136169471955</v>
       </c>
       <c r="B153" t="n">
-        <v>23.88336848765595</v>
+        <v>23.88104326072761</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>360.5096001396786</v>
+        <v>360.7044004092411</v>
       </c>
       <c r="B154" t="n">
-        <v>23.83841877310205</v>
+        <v>23.83611913957772</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>364.2916798788474</v>
+        <v>364.4860076173343</v>
       </c>
       <c r="B155" t="n">
-        <v>23.79396747837733</v>
+        <v>23.79169391147771</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>368.0646878357308</v>
+        <v>368.2585488846247</v>
       </c>
       <c r="B156" t="n">
-        <v>23.75000666896646</v>
+        <v>23.74775861855257</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>371.8287215533352</v>
+        <v>372.0221289081597</v>
       </c>
       <c r="B157" t="n">
-        <v>23.70652938438861</v>
+        <v>23.70430514144643</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>375.5838843116349</v>
+        <v>375.7768371758431</v>
       </c>
       <c r="B158" t="n">
-        <v>23.66352835578362</v>
+        <v>23.66132825174198</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>379.3302847106367</v>
+        <v>379.522784551375</v>
       </c>
       <c r="B159" t="n">
-        <v>23.62099329882557</v>
+        <v>23.61881827901042</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>383.0680079034917</v>
+        <v>383.2600643030454</v>
       </c>
       <c r="B160" t="n">
-        <v>23.57892051946349</v>
+        <v>23.57676932111998</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>386.7971454444943</v>
+        <v>386.9887693046614</v>
       </c>
       <c r="B161" t="n">
-        <v>23.53730449088188</v>
+        <v>23.53517453566075</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>390.5178071955276</v>
+        <v>390.7089943787278</v>
       </c>
       <c r="B162" t="n">
-        <v>23.49613391737134</v>
+        <v>23.49402747640803</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>394.2300865289109</v>
+        <v>394.4208361864951</v>
       </c>
       <c r="B163" t="n">
-        <v>23.4554024458335</v>
+        <v>23.45332061329655</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>397.9340635006657</v>
+        <v>398.1243978207976</v>
       </c>
       <c r="B164" t="n">
-        <v>23.41510701463149</v>
+        <v>23.41304504516616</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>401.6298371707234</v>
+        <v>401.819746890657</v>
       </c>
       <c r="B165" t="n">
-        <v>23.3752375079201</v>
+        <v>23.37319898188789</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>405.3174829503225</v>
+        <v>405.5069827228165</v>
       </c>
       <c r="B166" t="n">
-        <v>23.33579290965987</v>
+        <v>23.33377427494471</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>408.9971174702775</v>
+        <v>409.1862021390849</v>
       </c>
       <c r="B167" t="n">
-        <v>23.29675833376396</v>
+        <v>23.29476243478738</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>412.6688031716923</v>
+        <v>412.8574804630765</v>
       </c>
       <c r="B168" t="n">
-        <v>23.2581348207026</v>
+        <v>23.25616001114037</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>416.3326302111098</v>
+        <v>416.5209056268906</v>
       </c>
       <c r="B169" t="n">
-        <v>23.21991505526514</v>
+        <v>23.21796056453851</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>419.9886867556547</v>
+        <v>420.1765675470912</v>
       </c>
       <c r="B170" t="n">
-        <v>23.18209110949063</v>
+        <v>23.18015630055865</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>423.6370564106192</v>
+        <v>423.824549720792</v>
       </c>
       <c r="B171" t="n">
-        <v>23.14465854600006</v>
+        <v>23.14274180081338</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>427.2778211087427</v>
+        <v>427.4649271858394</v>
       </c>
       <c r="B172" t="n">
-        <v>23.10761033045071</v>
+        <v>23.10571317998447</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>430.9110679862848</v>
+        <v>431.097780841328</v>
       </c>
       <c r="B173" t="n">
-        <v>23.07094057077227</v>
+        <v>23.06906446293937</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>434.5368618918988</v>
+        <v>434.7231961044383</v>
       </c>
       <c r="B174" t="n">
-        <v>23.0346462974154</v>
+        <v>23.03278913498673</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>438.1552957544953</v>
+        <v>438.3412537707059</v>
       </c>
       <c r="B175" t="n">
-        <v>22.99871902890323</v>
+        <v>22.99688023607482</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>441.7664431797688</v>
+        <v>441.9520235115015</v>
       </c>
       <c r="B176" t="n">
-        <v>22.96315498456735</v>
+        <v>22.96133597235529</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>445.3703708671885</v>
+        <v>445.5555862646071</v>
       </c>
       <c r="B177" t="n">
-        <v>22.92795010756306</v>
+        <v>22.92614839089868</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>448.9671750555713</v>
+        <v>449.1520209381646</v>
       </c>
       <c r="B178" t="n">
-        <v>22.8930949318928</v>
+        <v>22.8913123766062</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>452.5569093999481</v>
+        <v>452.74139006016</v>
       </c>
       <c r="B179" t="n">
-        <v>22.85858897780348</v>
+        <v>22.85682513854041</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>456.1396512535589</v>
+        <v>456.3237840376682</v>
       </c>
       <c r="B180" t="n">
-        <v>22.82442723906221</v>
+        <v>22.82267807166663</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>459.7154841073787</v>
+        <v>459.8992629650807</v>
       </c>
       <c r="B181" t="n">
-        <v>22.79060057420812</v>
+        <v>22.7888687915511</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>463.2844696378712</v>
+        <v>463.4678986175141</v>
       </c>
       <c r="B182" t="n">
-        <v>22.75710797902345</v>
+        <v>22.75539314669767</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>466.8466841796261</v>
+        <v>467.0297663756248</v>
       </c>
       <c r="B183" t="n">
-        <v>22.72394201367488</v>
+        <v>22.72224425687649</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>470.4021928011937</v>
+        <v>470.5849256076006</v>
       </c>
       <c r="B184" t="n">
-        <v>22.69110020653009</v>
+        <v>22.68942029078818</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>473.9510645753182</v>
+        <v>474.133463957395</v>
       </c>
       <c r="B185" t="n">
-        <v>22.65857708425789</v>
+        <v>22.65691127392299</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>477.4933658963777</v>
+        <v>477.6754300250027</v>
       </c>
       <c r="B186" t="n">
-        <v>22.6263683420251</v>
+        <v>22.62471920970292</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>481.0291687687882</v>
+        <v>481.2108987927978</v>
       </c>
       <c r="B187" t="n">
-        <v>22.59446853229422</v>
+        <v>22.59283497119401</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>484.5585350985593</v>
+        <v>484.7399377704998</v>
       </c>
       <c r="B188" t="n">
-        <v>22.56287364238758</v>
+        <v>22.56125564752301</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>488.0815305880288</v>
+        <v>488.2626080545202</v>
       </c>
       <c r="B189" t="n">
-        <v>22.53157988831719</v>
+        <v>22.52997727699124</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>491.5982190630431</v>
+        <v>491.7789717189567</v>
       </c>
       <c r="B190" t="n">
-        <v>22.50058348563923</v>
+        <v>22.49899544997922</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>495.1086644351662</v>
+        <v>495.2890933897431</v>
       </c>
       <c r="B191" t="n">
-        <v>22.4698778856402</v>
+        <v>22.46830706733103</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>498.612922511305</v>
+        <v>498.7930366127459</v>
       </c>
       <c r="B192" t="n">
-        <v>22.43946260151024</v>
+        <v>22.43790622072792</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>502.1110602776631</v>
+        <v>502.290862602835</v>
       </c>
       <c r="B193" t="n">
-        <v>22.40933247490668</v>
+        <v>22.40778927822491</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>505.6031383537768</v>
+        <v>505.7826325322091</v>
       </c>
       <c r="B194" t="n">
-        <v>22.37948278258573</v>
+        <v>22.3779532294933</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>509.089218668341</v>
+        <v>509.2684059522034</v>
       </c>
       <c r="B195" t="n">
-        <v>22.34990781111176</v>
+        <v>22.34839228274979</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>512.5693515650913</v>
+        <v>512.7482374621824</v>
       </c>
       <c r="B196" t="n">
-        <v>22.32060769753995</v>
+        <v>22.3191061441706</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>516.0436095300552</v>
+        <v>516.2221898802381</v>
       </c>
       <c r="B197" t="n">
-        <v>22.29157329519397</v>
+        <v>22.29008649467456</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>519.5120390791237</v>
+        <v>519.6903172868773</v>
       </c>
       <c r="B198" t="n">
-        <v>22.26280474825294</v>
+        <v>22.26133369182482</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>522.9746941888277</v>
+        <v>523.1526821800028</v>
       </c>
       <c r="B199" t="n">
-        <v>22.23430078746052</v>
+        <v>22.23284066001344</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>526.4316387024681</v>
+        <v>526.6093337769933</v>
       </c>
       <c r="B200" t="n">
-        <v>22.20605334012077</v>
+        <v>22.20460607697478</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_40.xlsx
+++ b/Reverse_anglesIn_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,1594 +440,1538 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-526.4339260313019</v>
+        <v>-0.4881523543955226</v>
       </c>
       <c r="B2" t="n">
-        <v>53.29551747526514</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-509.1405807743475</v>
+        <v>-0.483039578544812</v>
       </c>
       <c r="B3" t="n">
-        <v>52.36806133956255</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-493.2210543278782</v>
+        <v>-0.4779268026941019</v>
       </c>
       <c r="B4" t="n">
-        <v>51.50626871556886</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-478.4212500010859</v>
+        <v>-0.4728140268433916</v>
       </c>
       <c r="B5" t="n">
-        <v>50.70060622768894</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-464.5506468598391</v>
+        <v>-0.4677012509926794</v>
       </c>
       <c r="B6" t="n">
-        <v>49.94361298881365</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-451.4628853573752</v>
+        <v>-0.462588475141969</v>
       </c>
       <c r="B7" t="n">
-        <v>49.22932146337475</v>
+        <v>40.00000000000004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-439.0431483571489</v>
+        <v>-0.4574756992912595</v>
       </c>
       <c r="B8" t="n">
-        <v>48.55286539534496</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-427.1999900775857</v>
+        <v>-0.4523629234405487</v>
       </c>
       <c r="B9" t="n">
-        <v>47.91023061300749</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-415.8592713361713</v>
+        <v>-0.4472501475898372</v>
       </c>
       <c r="B10" t="n">
-        <v>47.29804472435634</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-404.9603137698872</v>
+        <v>-0.4421373717391259</v>
       </c>
       <c r="B11" t="n">
-        <v>46.71345956013232</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-394.4526757809883</v>
+        <v>-0.4370245958884122</v>
       </c>
       <c r="B12" t="n">
-        <v>46.15402779691252</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-384.2941794270938</v>
+        <v>-0.4319118200377027</v>
       </c>
       <c r="B13" t="n">
-        <v>45.61764330020108</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-374.4490861484809</v>
+        <v>-0.4267990441869953</v>
       </c>
       <c r="B14" t="n">
-        <v>45.102466110612</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-364.8870456199379</v>
+        <v>-0.4216862683362852</v>
       </c>
       <c r="B15" t="n">
-        <v>44.60689332188133</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-355.5818826869706</v>
+        <v>-0.4165734924855747</v>
       </c>
       <c r="B16" t="n">
-        <v>44.12950065644905</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-346.5109681744322</v>
+        <v>-0.4114607166348638</v>
       </c>
       <c r="B17" t="n">
-        <v>43.66902415752632</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-337.6547637949596</v>
+        <v>-0.4063479407841536</v>
       </c>
       <c r="B18" t="n">
-        <v>43.22434951868831</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-328.9959655709807</v>
+        <v>-0.4012351649334432</v>
       </c>
       <c r="B19" t="n">
-        <v>42.79445810529274</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-320.5194967018657</v>
+        <v>-0.3961223890827344</v>
       </c>
       <c r="B20" t="n">
-        <v>42.37844555929662</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-312.2120612131366</v>
+        <v>-0.3910096132320233</v>
       </c>
       <c r="B21" t="n">
-        <v>41.97549679878543</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-304.0617377391433</v>
+        <v>-0.3858968373813109</v>
       </c>
       <c r="B22" t="n">
-        <v>41.58486029570061</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-296.0579855161305</v>
+        <v>-0.3807840615306003</v>
       </c>
       <c r="B23" t="n">
-        <v>41.20585978447414</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-288.1913635474653</v>
+        <v>-0.3756712856798896</v>
       </c>
       <c r="B24" t="n">
-        <v>40.83787629061211</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-280.453356048537</v>
+        <v>-0.370558509829179</v>
       </c>
       <c r="B25" t="n">
-        <v>40.48033871653327</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-272.8363366673292</v>
+        <v>-0.3654457339784686</v>
       </c>
       <c r="B26" t="n">
-        <v>40.13272689726595</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-265.333360317613</v>
+        <v>-0.3603329581277578</v>
       </c>
       <c r="B27" t="n">
-        <v>39.79455624615211</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-257.9382141375989</v>
+        <v>-0.355220182277047</v>
       </c>
       <c r="B28" t="n">
-        <v>39.46538781369296</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-250.6451333089627</v>
+        <v>-0.3501074064263368</v>
       </c>
       <c r="B29" t="n">
-        <v>39.14480319253821</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-243.4489280493665</v>
+        <v>-0.3449946305756261</v>
       </c>
       <c r="B30" t="n">
-        <v>38.83242109067315</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-236.3448444246867</v>
+        <v>-0.3398818547249154</v>
       </c>
       <c r="B31" t="n">
-        <v>38.52788594569672</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-229.3285149839998</v>
+        <v>-0.3347690788742047</v>
       </c>
       <c r="B32" t="n">
-        <v>38.23086539461229</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-222.3959155864984</v>
+        <v>-0.3296563030234941</v>
       </c>
       <c r="B33" t="n">
-        <v>37.94104798340913</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-215.5433799714392</v>
+        <v>-0.3245435271727835</v>
       </c>
       <c r="B34" t="n">
-        <v>37.65814667159026</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-208.767468772483</v>
+        <v>-0.3194307513220729</v>
       </c>
       <c r="B35" t="n">
-        <v>37.38188647939702</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-202.0650341969947</v>
+        <v>-0.3143179754713625</v>
       </c>
       <c r="B36" t="n">
-        <v>37.11201314431436</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-195.4331185987315</v>
+        <v>-0.3092051996206516</v>
       </c>
       <c r="B37" t="n">
-        <v>36.84828314710902</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-188.8690407272937</v>
+        <v>-0.304092423769941</v>
       </c>
       <c r="B38" t="n">
-        <v>36.59047470301241</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-182.3702546642298</v>
+        <v>-0.2989796479192308</v>
       </c>
       <c r="B39" t="n">
-        <v>36.33837300599746</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-175.9343899818407</v>
+        <v>-0.2938668720685204</v>
       </c>
       <c r="B40" t="n">
-        <v>36.09177560151602</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-169.5592413070059</v>
+        <v>-0.28875409621781</v>
       </c>
       <c r="B41" t="n">
-        <v>35.85049221737749</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-163.2427493299429</v>
+        <v>-0.2836413203670992</v>
       </c>
       <c r="B42" t="n">
-        <v>35.6143432050048</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-156.982955765896</v>
+        <v>-0.2785285445163891</v>
       </c>
       <c r="B43" t="n">
-        <v>35.38315504830484</v>
+        <v>40.00000000000004</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-150.778060504197</v>
+        <v>-0.2734157686656787</v>
       </c>
       <c r="B44" t="n">
-        <v>35.15676770300216</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-144.6263571818742</v>
+        <v>-0.2683029928149685</v>
       </c>
       <c r="B45" t="n">
-        <v>34.93502747630071</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-138.526196173977</v>
+        <v>-0.263190216964259</v>
       </c>
       <c r="B46" t="n">
-        <v>34.71778331603518</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-132.476095830299</v>
+        <v>-0.2580774411135494</v>
       </c>
       <c r="B47" t="n">
-        <v>34.50490015993896</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-126.4746080388748</v>
+        <v>-0.2529646652628406</v>
       </c>
       <c r="B48" t="n">
-        <v>34.29624362616774</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-120.5203602521178</v>
+        <v>-0.2478518894121318</v>
       </c>
       <c r="B49" t="n">
-        <v>34.09168532442623</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-114.6120707672621</v>
+        <v>-0.2427391135614175</v>
       </c>
       <c r="B50" t="n">
-        <v>33.89110474339028</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-108.7485174500411</v>
+        <v>-0.2376263377107085</v>
       </c>
       <c r="B51" t="n">
-        <v>33.69438618035357</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-102.9285381014836</v>
+        <v>-0.2325135618599924</v>
       </c>
       <c r="B52" t="n">
-        <v>33.50141867250678</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-97.15103243857003</v>
+        <v>-0.2274007860092825</v>
       </c>
       <c r="B53" t="n">
-        <v>33.31209678300124</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-91.41493795001206</v>
+        <v>-0.2222880101585714</v>
       </c>
       <c r="B54" t="n">
-        <v>33.12631764669972</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-85.71924461466787</v>
+        <v>-0.2171752343078603</v>
       </c>
       <c r="B55" t="n">
-        <v>32.94398296985759</v>
+        <v>39.99999999999998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-80.06302131716689</v>
+        <v>-0.2120624584571505</v>
       </c>
       <c r="B56" t="n">
-        <v>32.7650026895289</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-74.44532826229575</v>
+        <v>-0.2069496826064394</v>
       </c>
       <c r="B57" t="n">
-        <v>32.58928404090935</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-68.86529319863831</v>
+        <v>-0.2018369067557296</v>
       </c>
       <c r="B58" t="n">
-        <v>32.41674127741568</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-63.32207657964816</v>
+        <v>-0.1967241309050187</v>
       </c>
       <c r="B59" t="n">
-        <v>32.24729135641392</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-57.81488158056131</v>
+        <v>-0.191611355054308</v>
       </c>
       <c r="B60" t="n">
-        <v>32.08085568567975</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-52.34292288548582</v>
+        <v>-0.1864985792035981</v>
       </c>
       <c r="B61" t="n">
-        <v>31.91735565367977</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-46.90548113289618</v>
+        <v>-0.1813858033528871</v>
       </c>
       <c r="B62" t="n">
-        <v>31.75672026689377</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-41.50180865135385</v>
+        <v>-0.1762730275021769</v>
       </c>
       <c r="B63" t="n">
-        <v>31.59887381133561</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-36.13125345924396</v>
+        <v>-0.1711602516514662</v>
       </c>
       <c r="B64" t="n">
-        <v>31.44375204904645</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-30.79314335356146</v>
+        <v>-0.1660474758007556</v>
       </c>
       <c r="B65" t="n">
-        <v>31.2912873655149</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-25.48681615652993</v>
+        <v>-0.1609346999500458</v>
       </c>
       <c r="B66" t="n">
-        <v>31.1414123356443</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-20.21168672129805</v>
+        <v>-0.1558219240993352</v>
       </c>
       <c r="B67" t="n">
-        <v>30.99406925098221</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-14.9671625132644</v>
+        <v>-0.1507091482486254</v>
       </c>
       <c r="B68" t="n">
-        <v>30.84919864141389</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-9.752652764410955</v>
+        <v>-0.145596372397915</v>
       </c>
       <c r="B69" t="n">
-        <v>30.7067404340595</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-4.567593694415546</v>
+        <v>-0.1404835965472047</v>
       </c>
       <c r="B70" t="n">
-        <v>30.56663774762423</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>0.5885211568830215</v>
+        <v>-0.135370820696495</v>
       </c>
       <c r="B71" t="n">
-        <v>30.42884064029974</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>5.716255553058147</v>
+        <v>-0.1302580448457848</v>
       </c>
       <c r="B72" t="n">
-        <v>30.29329094422907</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>10.81606524510127</v>
+        <v>-0.1251452689950724</v>
       </c>
       <c r="B73" t="n">
-        <v>30.15994471989659</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>15.8884653132984</v>
+        <v>-0.1200324931443592</v>
       </c>
       <c r="B74" t="n">
-        <v>30.02874935581323</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>20.93393877503246</v>
+        <v>-0.1149197172936482</v>
       </c>
       <c r="B75" t="n">
-        <v>29.89965607875806</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>25.95293507342575</v>
+        <v>-0.1098069414429378</v>
       </c>
       <c r="B76" t="n">
-        <v>29.772620398232</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>30.94589641737045</v>
+        <v>-0.1046941655922269</v>
       </c>
       <c r="B77" t="n">
-        <v>29.64759836501347</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>35.91326887649836</v>
+        <v>-0.09958138974151691</v>
       </c>
       <c r="B78" t="n">
-        <v>29.52454511800818</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>40.85547018275395</v>
+        <v>-0.09446861389080599</v>
       </c>
       <c r="B79" t="n">
-        <v>29.40341932623403</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45.77292813793603</v>
+        <v>-0.08935583804009498</v>
       </c>
       <c r="B80" t="n">
-        <v>29.28417783048175</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>50.66601696563969</v>
+        <v>-0.08424306218938497</v>
       </c>
       <c r="B81" t="n">
-        <v>29.16678474982587</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>55.53514325930038</v>
+        <v>-0.079130286338674</v>
       </c>
       <c r="B82" t="n">
-        <v>29.05119922757399</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>60.38069534748958</v>
+        <v>-0.07401751048796379</v>
       </c>
       <c r="B83" t="n">
-        <v>28.93738262508203</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>65.20302906594864</v>
+        <v>-0.068904734637253</v>
       </c>
       <c r="B84" t="n">
-        <v>28.82530084584486</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>70.00252706915377</v>
+        <v>-0.06379195878654204</v>
       </c>
       <c r="B85" t="n">
-        <v>28.71491537322521</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>74.77951438575752</v>
+        <v>-0.05867918293583189</v>
       </c>
       <c r="B86" t="n">
-        <v>28.60619577883514</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>79.53436495163527</v>
+        <v>-0.05356640708512084</v>
       </c>
       <c r="B87" t="n">
-        <v>28.49910447861432</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>84.26739462611131</v>
+        <v>-0.04845363123441077</v>
       </c>
       <c r="B88" t="n">
-        <v>28.3936115843569</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88.97894897557978</v>
+        <v>-0.04334085538369983</v>
       </c>
       <c r="B89" t="n">
-        <v>28.28968313367962</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>93.66933485826675</v>
+        <v>-0.03822807953298905</v>
       </c>
       <c r="B90" t="n">
-        <v>28.18729024544739</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>98.33887768614532</v>
+        <v>-0.0331153036822787</v>
       </c>
       <c r="B91" t="n">
-        <v>28.08640119789675</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>102.9878825745373</v>
+        <v>-0.02800252783156769</v>
       </c>
       <c r="B92" t="n">
-        <v>27.98698679154139</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>107.6166612464277</v>
+        <v>-0.02288975198085763</v>
       </c>
       <c r="B93" t="n">
-        <v>27.88901680400081</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>112.2254808915274</v>
+        <v>-0.01777697613014678</v>
       </c>
       <c r="B94" t="n">
-        <v>27.79246757947745</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>116.8146615363652</v>
+        <v>-0.01266420027943592</v>
       </c>
       <c r="B95" t="n">
-        <v>27.697306905208</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>121.3844660816917</v>
+        <v>-0.007551424428725523</v>
       </c>
       <c r="B96" t="n">
-        <v>27.60351134001476</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>125.9351849038241</v>
+        <v>-0.002438648578014991</v>
       </c>
       <c r="B97" t="n">
-        <v>27.51105250105742</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>130.4670619078853</v>
+        <v>0.00267412727269533</v>
       </c>
       <c r="B98" t="n">
-        <v>27.41990963331532</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>134.9804030697643</v>
+        <v>0.007786903123406241</v>
       </c>
       <c r="B99" t="n">
-        <v>27.33005158732114</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>139.4754332968331</v>
+        <v>0.0128996789741175</v>
       </c>
       <c r="B100" t="n">
-        <v>27.24145977091045</v>
+        <v>39.99999999999998</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>143.9524306781309</v>
+        <v>0.01801245482482743</v>
       </c>
       <c r="B101" t="n">
-        <v>27.15410708279143</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>148.4116410915129</v>
+        <v>0.02312523067553825</v>
       </c>
       <c r="B102" t="n">
-        <v>27.06797128810337</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>152.8533048757419</v>
+        <v>0.02823800652624835</v>
       </c>
       <c r="B103" t="n">
-        <v>26.98303064401714</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>157.2776591015959</v>
+        <v>0.03335078237695931</v>
       </c>
       <c r="B104" t="n">
-        <v>26.89926389696467</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>161.6849560472673</v>
+        <v>0.0384635582276703</v>
       </c>
       <c r="B105" t="n">
-        <v>26.81664703783454</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>166.075403683118</v>
+        <v>0.04357633407838042</v>
       </c>
       <c r="B106" t="n">
-        <v>26.73516296080528</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>170.4492495889094</v>
+        <v>0.04868910992909142</v>
       </c>
       <c r="B107" t="n">
-        <v>26.65478785317423</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>174.8067118545003</v>
+        <v>0.05380188577980163</v>
       </c>
       <c r="B108" t="n">
-        <v>26.57550294526569</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>179.1480065899464</v>
+        <v>0.05891466163051258</v>
       </c>
       <c r="B109" t="n">
-        <v>26.49728885369434</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>183.4733584177804</v>
+        <v>0.06402743748122339</v>
       </c>
       <c r="B110" t="n">
-        <v>26.42012513447773</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>187.7829670142075</v>
+        <v>0.06914021333193351</v>
       </c>
       <c r="B111" t="n">
-        <v>26.34399495158983</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>192.0770467502778</v>
+        <v>0.07425298918264414</v>
       </c>
       <c r="B112" t="n">
-        <v>26.26887898696094</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>196.3558001829628</v>
+        <v>0.07936576503335453</v>
       </c>
       <c r="B113" t="n">
-        <v>26.19475969670586</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>200.6194381181764</v>
+        <v>0.08447854088406542</v>
       </c>
       <c r="B114" t="n">
-        <v>26.12161779032836</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>204.8681304067867</v>
+        <v>0.0895913167347763</v>
       </c>
       <c r="B115" t="n">
-        <v>26.04944096969365</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>209.1021042414887</v>
+        <v>0.09470409258548679</v>
       </c>
       <c r="B116" t="n">
-        <v>25.97820644107185</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>213.3215297857625</v>
+        <v>0.09981686843621455</v>
       </c>
       <c r="B117" t="n">
-        <v>25.90790148761089</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>217.5265986541984</v>
+        <v>0.1049296442869167</v>
       </c>
       <c r="B118" t="n">
-        <v>25.83850947889797</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>221.7174978285805</v>
+        <v>0.110042420137623</v>
       </c>
       <c r="B119" t="n">
-        <v>25.77001384445312</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>225.8944082047541</v>
+        <v>0.115155195988331</v>
       </c>
       <c r="B120" t="n">
-        <v>25.70239956047029</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>230.057501580712</v>
+        <v>0.1202679718390399</v>
       </c>
       <c r="B121" t="n">
-        <v>25.63565236703537</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>234.2069627357162</v>
+        <v>0.1253807476897505</v>
       </c>
       <c r="B122" t="n">
-        <v>25.56975606066319</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>238.3429535070838</v>
+        <v>0.1304935235404607</v>
       </c>
       <c r="B123" t="n">
-        <v>25.50469792253373</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>242.4656592045429</v>
+        <v>0.1356062993911713</v>
       </c>
       <c r="B124" t="n">
-        <v>25.44046094620451</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>246.5752274753005</v>
+        <v>0.1407190752418807</v>
       </c>
       <c r="B125" t="n">
-        <v>25.37703463665761</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>250.6718369521371</v>
+        <v>0.1458318510925878</v>
       </c>
       <c r="B126" t="n">
-        <v>25.31440281564559</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>254.7556352759844</v>
+        <v>0.1509446269432931</v>
       </c>
       <c r="B127" t="n">
-        <v>25.25255473125179</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>258.8267974250736</v>
+        <v>0.1560574027939953</v>
       </c>
       <c r="B128" t="n">
-        <v>25.19147434836039</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>262.8854705200417</v>
+        <v>0.1611701786447247</v>
       </c>
       <c r="B129" t="n">
-        <v>25.13115038865869</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>266.9318073190088</v>
+        <v>0.1662829544954355</v>
       </c>
       <c r="B130" t="n">
-        <v>25.07157066128796</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>270.9659552221091</v>
+        <v>0.1713957303461457</v>
       </c>
       <c r="B131" t="n">
-        <v>25.01272358189608</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>274.9880840200122</v>
+        <v>0.1765085061968567</v>
       </c>
       <c r="B132" t="n">
-        <v>24.95459326591053</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>278.9983120766514</v>
+        <v>0.1816212820475668</v>
       </c>
       <c r="B133" t="n">
-        <v>24.89717304161593</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>282.9968009635971</v>
+        <v>0.1867340578982778</v>
       </c>
       <c r="B134" t="n">
-        <v>24.84044837776191</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>286.9836944448364</v>
+        <v>0.1918468337489886</v>
       </c>
       <c r="B135" t="n">
-        <v>24.78440720609733</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>290.9591230605871</v>
+        <v>0.1969596095996988</v>
       </c>
       <c r="B136" t="n">
-        <v>24.72904050200296</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>294.9232342052225</v>
+        <v>0.2020723854504098</v>
       </c>
       <c r="B137" t="n">
-        <v>24.67433542524249</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>298.8761506621237</v>
+        <v>0.20718516130112</v>
       </c>
       <c r="B138" t="n">
-        <v>24.62028348327629</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>302.8180143180623</v>
+        <v>0.2122979371518308</v>
       </c>
       <c r="B139" t="n">
-        <v>24.5668730281781</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>306.7489554560355</v>
+        <v>0.2174107130025418</v>
       </c>
       <c r="B140" t="n">
-        <v>24.51409381304583</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>310.6691058229687</v>
+        <v>0.2225234888532519</v>
       </c>
       <c r="B141" t="n">
-        <v>24.4619348238474</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>314.5785839453862</v>
+        <v>0.2276362647039628</v>
       </c>
       <c r="B142" t="n">
-        <v>24.41038883103041</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>318.4775343476232</v>
+        <v>0.2327490405546729</v>
       </c>
       <c r="B143" t="n">
-        <v>24.35944150285252</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>322.3660603254131</v>
+        <v>0.2378618164053838</v>
       </c>
       <c r="B144" t="n">
-        <v>24.30908777166981</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>326.2442992725518</v>
+        <v>0.242974592256095</v>
       </c>
       <c r="B145" t="n">
-        <v>24.25931504975804</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>330.1123537347818</v>
+        <v>0.248087368106805</v>
       </c>
       <c r="B146" t="n">
-        <v>24.21011791616239</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>333.9703606170653</v>
+        <v>0.2532001439575159</v>
       </c>
       <c r="B147" t="n">
-        <v>24.16148314836084</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>337.8184246131083</v>
+        <v>0.2583129198082262</v>
       </c>
       <c r="B148" t="n">
-        <v>24.11340455625808</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>341.656660618356</v>
+        <v>0.263425695658937</v>
       </c>
       <c r="B149" t="n">
-        <v>24.06587369367615</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>345.4851977705497</v>
+        <v>0.2685384715096479</v>
       </c>
       <c r="B150" t="n">
-        <v>24.01887787445497</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>349.3041212463379</v>
+        <v>0.273651247360358</v>
       </c>
       <c r="B151" t="n">
-        <v>23.97241485481642</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>353.113560544865</v>
+        <v>0.278764023211069</v>
       </c>
       <c r="B152" t="n">
-        <v>23.92647225051557</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>356.9136169471955</v>
+        <v>0.2838767990617792</v>
       </c>
       <c r="B153" t="n">
-        <v>23.88104326072761</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>360.7044004092411</v>
+        <v>0.28898957491249</v>
       </c>
       <c r="B154" t="n">
-        <v>23.83611913957772</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>364.4860076173343</v>
+        <v>0.2941023507632008</v>
       </c>
       <c r="B155" t="n">
-        <v>23.79169391147771</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>368.2585488846247</v>
+        <v>0.2992151266139112</v>
       </c>
       <c r="B156" t="n">
-        <v>23.74775861855257</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>372.0221289081597</v>
+        <v>0.304327902464622</v>
       </c>
       <c r="B157" t="n">
-        <v>23.70430514144643</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>375.7768371758431</v>
+        <v>0.3094406783153322</v>
       </c>
       <c r="B158" t="n">
-        <v>23.66132825174198</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>379.522784551375</v>
+        <v>0.314553454166043</v>
       </c>
       <c r="B159" t="n">
-        <v>23.61881827901042</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>383.2600643030454</v>
+        <v>0.319666230016754</v>
       </c>
       <c r="B160" t="n">
-        <v>23.57676932111998</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>386.9887693046614</v>
+        <v>0.3247790058674641</v>
       </c>
       <c r="B161" t="n">
-        <v>23.53517453566075</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>390.7089943787278</v>
+        <v>0.3298917817181751</v>
       </c>
       <c r="B162" t="n">
-        <v>23.49402747640803</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>394.4208361864951</v>
+        <v>0.3350045575688852</v>
       </c>
       <c r="B163" t="n">
-        <v>23.45332061329655</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>398.1243978207976</v>
+        <v>0.3401173334195961</v>
       </c>
       <c r="B164" t="n">
-        <v>23.41304504516616</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>401.819746890657</v>
+        <v>0.3452301092703069</v>
       </c>
       <c r="B165" t="n">
-        <v>23.37319898188789</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>405.5069827228165</v>
+        <v>0.3503428851210171</v>
       </c>
       <c r="B166" t="n">
-        <v>23.33377427494471</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>409.1862021390849</v>
+        <v>0.3554556609717279</v>
       </c>
       <c r="B167" t="n">
-        <v>23.29476243478738</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>412.8574804630765</v>
+        <v>0.3605684368224381</v>
       </c>
       <c r="B168" t="n">
-        <v>23.25616001114037</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>416.5209056268906</v>
+        <v>0.3656812126731493</v>
       </c>
       <c r="B169" t="n">
-        <v>23.21796056453851</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>420.1765675470912</v>
+        <v>0.3707939885238603</v>
       </c>
       <c r="B170" t="n">
-        <v>23.18015630055865</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>423.824549720792</v>
+        <v>0.3759067643745702</v>
       </c>
       <c r="B171" t="n">
-        <v>23.14274180081338</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>427.4649271858394</v>
+        <v>0.3810195402252812</v>
       </c>
       <c r="B172" t="n">
-        <v>23.10571317998447</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>431.097780841328</v>
+        <v>0.3861323160759914</v>
       </c>
       <c r="B173" t="n">
-        <v>23.06906446293937</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>434.7231961044383</v>
+        <v>0.3912450919267023</v>
       </c>
       <c r="B174" t="n">
-        <v>23.03278913498673</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>438.3412537707059</v>
+        <v>0.3963578677774132</v>
       </c>
       <c r="B175" t="n">
-        <v>22.99688023607482</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>441.9520235115015</v>
+        <v>0.4014706436281232</v>
       </c>
       <c r="B176" t="n">
-        <v>22.96133597235529</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>445.5555862646071</v>
+        <v>0.4065834194788341</v>
       </c>
       <c r="B177" t="n">
-        <v>22.92614839089868</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>449.1520209381646</v>
+        <v>0.4116961953295444</v>
       </c>
       <c r="B178" t="n">
-        <v>22.8913123766062</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>452.74139006016</v>
+        <v>0.4168089711802552</v>
       </c>
       <c r="B179" t="n">
-        <v>22.85682513854041</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>456.3237840376682</v>
+        <v>0.4219217470309661</v>
       </c>
       <c r="B180" t="n">
-        <v>22.82267807166663</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>459.8992629650807</v>
+        <v>0.4270345228816765</v>
       </c>
       <c r="B181" t="n">
-        <v>22.7888687915511</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>463.4678986175141</v>
+        <v>0.4321472987323873</v>
       </c>
       <c r="B182" t="n">
-        <v>22.75539314669767</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>467.0297663756248</v>
+        <v>0.4372600745830978</v>
       </c>
       <c r="B183" t="n">
-        <v>22.72224425687649</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>470.5849256076006</v>
+        <v>0.4423728504338085</v>
       </c>
       <c r="B184" t="n">
-        <v>22.68942029078818</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>474.133463957395</v>
+        <v>0.4474856262845194</v>
       </c>
       <c r="B185" t="n">
-        <v>22.65691127392299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>477.6754300250027</v>
+        <v>0.4525984021352295</v>
       </c>
       <c r="B186" t="n">
-        <v>22.62471920970292</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>481.2108987927978</v>
+        <v>0.4577111779859406</v>
       </c>
       <c r="B187" t="n">
-        <v>22.59283497119401</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>484.7399377704998</v>
+        <v>0.4628239538366506</v>
       </c>
       <c r="B188" t="n">
-        <v>22.56125564752301</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>488.2626080545202</v>
+        <v>0.4679367296873616</v>
       </c>
       <c r="B189" t="n">
-        <v>22.52997727699124</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>491.7789717189567</v>
+        <v>0.4730495055380725</v>
       </c>
       <c r="B190" t="n">
-        <v>22.49899544997922</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>495.2890933897431</v>
+        <v>0.4781622813887824</v>
       </c>
       <c r="B191" t="n">
-        <v>22.46830706733103</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>498.7930366127459</v>
+        <v>0.4832750572394936</v>
       </c>
       <c r="B192" t="n">
-        <v>22.43790622072792</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>502.290862602835</v>
+        <v>0.4883878330902035</v>
       </c>
       <c r="B193" t="n">
-        <v>22.40778927822491</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>505.7826325322091</v>
-      </c>
-      <c r="B194" t="n">
-        <v>22.3779532294933</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>509.2684059522034</v>
-      </c>
-      <c r="B195" t="n">
-        <v>22.34839228274979</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>512.7482374621824</v>
-      </c>
-      <c r="B196" t="n">
-        <v>22.3191061441706</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>516.2221898802381</v>
-      </c>
-      <c r="B197" t="n">
-        <v>22.29008649467456</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>519.6903172868773</v>
-      </c>
-      <c r="B198" t="n">
-        <v>22.26133369182482</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>523.1526821800028</v>
-      </c>
-      <c r="B199" t="n">
-        <v>22.23284066001344</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>526.6093337769933</v>
-      </c>
-      <c r="B200" t="n">
-        <v>22.20460607697478</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
   </sheetData>
